--- a/Test Cases/Nithya/Test Case- Lab & General Billing - Reviewed.xlsx
+++ b/Test Cases/Nithya/Test Case- Lab & General Billing - Reviewed.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1678" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1678" uniqueCount="519">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -215,9 +215,6 @@
     <t>Units:2
 Rate:500
 Disc%:10</t>
-  </si>
-  <si>
-    <t>Select Disc.Auth and Disc.cat</t>
   </si>
   <si>
     <t xml:space="preserve">User should be able to select from the drop down </t>
@@ -2342,20 +2339,65 @@
   <si>
     <r>
       <t xml:space="preserve">Enter text in below fields
-1.Remarks
-2.Address
-3.Mobile No.
+1.Units
 </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Also enter data in mandatory fields</t>
+      <t>2.Rate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+3.Disc%</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter text in below fields
+1.Remarks
+2.Address
+3.Mobile No.
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Select Disc.Auth and Disc.cat, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>click add an item</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Precondition:The Patient should be consulted and</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> advance entry should be made</t>
     </r>
   </si>
 </sst>
@@ -2363,7 +2405,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2437,6 +2479,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -2501,7 +2550,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2575,17 +2624,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2894,7 +2946,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2905,8 +2957,8 @@
   <dimension ref="A1:S734"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A623" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D371" sqref="D371"/>
+      <pane ySplit="1" topLeftCell="A432" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F433" sqref="F433"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2932,14 +2984,14 @@
       <c r="B1" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="26" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="17" t="s">
         <v>38</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F1" s="17" t="s">
         <v>2</v>
@@ -2963,14 +3015,14 @@
       <c r="M1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="25" t="s">
+      <c r="O1" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="25"/>
-      <c r="R1" s="26" t="s">
+      <c r="P1" s="27"/>
+      <c r="R1" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="S1" s="26"/>
+      <c r="S1" s="28"/>
     </row>
     <row r="2" spans="1:19" s="9" customFormat="1" ht="33.75" customHeight="1">
       <c r="A2" s="15" t="s">
@@ -3168,20 +3220,20 @@
         <v>9</v>
       </c>
       <c r="F10" s="6" t="s">
+        <v>517</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>58</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>59</v>
       </c>
       <c r="K10" s="4"/>
       <c r="L10" s="8"/>
     </row>
     <row r="11" spans="1:19" ht="30">
       <c r="F11" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="6" t="s">
         <v>60</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>61</v>
       </c>
       <c r="K11" s="4"/>
       <c r="L11" s="8"/>
@@ -3201,7 +3253,7 @@
         <v>37</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E13" s="6">
         <v>1</v>
@@ -3210,7 +3262,7 @@
         <v>40</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K13" s="4"/>
       <c r="L13" s="8"/>
@@ -3278,10 +3330,10 @@
         <v>6</v>
       </c>
       <c r="F18" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G18" s="6" t="s">
         <v>64</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>65</v>
       </c>
       <c r="K18" s="4"/>
       <c r="L18" s="8"/>
@@ -3291,10 +3343,10 @@
         <v>7</v>
       </c>
       <c r="F19" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G19" s="6" t="s">
         <v>66</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>67</v>
       </c>
       <c r="K19" s="4"/>
       <c r="L19" s="8"/>
@@ -3320,10 +3372,10 @@
         <v>9</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K21" s="4"/>
       <c r="L21" s="8"/>
@@ -3340,7 +3392,7 @@
         <v>36</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E23" s="6">
         <v>1</v>
@@ -3349,7 +3401,7 @@
         <v>40</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K23" s="4"/>
       <c r="L23" s="8"/>
@@ -3401,10 +3453,10 @@
         <v>5</v>
       </c>
       <c r="F27" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G27" s="6" t="s">
         <v>70</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>71</v>
       </c>
       <c r="K27" s="4"/>
       <c r="L27" s="8"/>
@@ -3414,10 +3466,10 @@
         <v>6</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K28" s="4"/>
       <c r="L28" s="8"/>
@@ -3434,7 +3486,7 @@
         <v>36</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E30" s="6">
         <v>1</v>
@@ -3443,7 +3495,7 @@
         <v>40</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K30" s="4"/>
       <c r="L30" s="8"/>
@@ -3495,10 +3547,10 @@
         <v>5</v>
       </c>
       <c r="F34" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G34" s="6" t="s">
         <v>70</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>71</v>
       </c>
       <c r="K34" s="4"/>
       <c r="L34" s="8"/>
@@ -3508,10 +3560,10 @@
         <v>6</v>
       </c>
       <c r="F35" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G35" s="6" t="s">
         <v>64</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>65</v>
       </c>
       <c r="K35" s="4"/>
       <c r="L35" s="8"/>
@@ -3521,10 +3573,10 @@
         <v>7</v>
       </c>
       <c r="F36" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G36" s="6" t="s">
         <v>66</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>67</v>
       </c>
       <c r="K36" s="4"/>
       <c r="L36" s="8"/>
@@ -3550,10 +3602,10 @@
         <v>9</v>
       </c>
       <c r="F38" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G38" s="6" t="s">
         <v>74</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>75</v>
       </c>
       <c r="K38" s="4"/>
       <c r="L38" s="8"/>
@@ -3563,10 +3615,10 @@
         <v>10</v>
       </c>
       <c r="F39" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G39" s="6" t="s">
         <v>76</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>77</v>
       </c>
       <c r="K39" s="4"/>
       <c r="L39" s="8"/>
@@ -3576,10 +3628,10 @@
         <v>6</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K40" s="4"/>
       <c r="L40" s="8"/>
@@ -3590,14 +3642,14 @@
       <c r="L41" s="8"/>
     </row>
     <row r="42" spans="1:12" ht="45">
-      <c r="A42" s="6" t="s">
+      <c r="A42" s="29" t="s">
         <v>22</v>
       </c>
       <c r="B42" s="18" t="s">
         <v>36</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E42" s="6">
         <v>1</v>
@@ -3606,7 +3658,7 @@
         <v>40</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K42" s="4"/>
       <c r="L42" s="8"/>
@@ -3642,10 +3694,10 @@
         <v>4</v>
       </c>
       <c r="F45" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G45" s="6" t="s">
         <v>79</v>
-      </c>
-      <c r="G45" s="6" t="s">
-        <v>80</v>
       </c>
       <c r="K45" s="4"/>
       <c r="L45" s="8"/>
@@ -3655,10 +3707,10 @@
         <v>5</v>
       </c>
       <c r="F46" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G46" s="6" t="s">
         <v>70</v>
-      </c>
-      <c r="G46" s="6" t="s">
-        <v>71</v>
       </c>
       <c r="K46" s="4"/>
       <c r="L46" s="8"/>
@@ -3668,10 +3720,10 @@
         <v>6</v>
       </c>
       <c r="F47" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G47" s="6" t="s">
         <v>64</v>
-      </c>
-      <c r="G47" s="6" t="s">
-        <v>65</v>
       </c>
       <c r="K47" s="4"/>
       <c r="L47" s="8"/>
@@ -3681,10 +3733,10 @@
         <v>7</v>
       </c>
       <c r="F48" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G48" s="6" t="s">
         <v>66</v>
-      </c>
-      <c r="G48" s="6" t="s">
-        <v>67</v>
       </c>
       <c r="K48" s="4"/>
       <c r="L48" s="8"/>
@@ -3694,7 +3746,7 @@
         <v>8</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>56</v>
+        <v>515</v>
       </c>
       <c r="G49" s="6" t="s">
         <v>50</v>
@@ -3710,10 +3762,10 @@
         <v>9</v>
       </c>
       <c r="F50" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G50" s="6" t="s">
         <v>74</v>
-      </c>
-      <c r="G50" s="6" t="s">
-        <v>75</v>
       </c>
       <c r="K50" s="4"/>
       <c r="L50" s="8"/>
@@ -3723,13 +3775,13 @@
         <v>10</v>
       </c>
       <c r="F51" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G51" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="G51" s="6" t="s">
+      <c r="I51" s="6" t="s">
         <v>82</v>
-      </c>
-      <c r="I51" s="6" t="s">
-        <v>83</v>
       </c>
       <c r="K51" s="4"/>
       <c r="L51" s="8"/>
@@ -3739,10 +3791,10 @@
         <v>11</v>
       </c>
       <c r="F52" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G52" s="6" t="s">
         <v>84</v>
-      </c>
-      <c r="G52" s="6" t="s">
-        <v>85</v>
       </c>
       <c r="K52" s="4"/>
       <c r="L52" s="8"/>
@@ -3752,10 +3804,10 @@
         <v>12</v>
       </c>
       <c r="F53" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G53" s="6" t="s">
         <v>86</v>
-      </c>
-      <c r="G53" s="6" t="s">
-        <v>87</v>
       </c>
       <c r="K53" s="4"/>
       <c r="L53" s="8"/>
@@ -3765,10 +3817,10 @@
         <v>6</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K54" s="4"/>
       <c r="L54" s="8"/>
@@ -3786,7 +3838,7 @@
         <v>36</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E56" s="6">
         <v>1</v>
@@ -3795,7 +3847,7 @@
         <v>40</v>
       </c>
       <c r="I56" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K56" s="4"/>
       <c r="L56" s="8"/>
@@ -3863,10 +3915,10 @@
         <v>6</v>
       </c>
       <c r="F61" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G61" s="6" t="s">
         <v>64</v>
-      </c>
-      <c r="G61" s="6" t="s">
-        <v>65</v>
       </c>
       <c r="K61" s="4"/>
       <c r="L61" s="8"/>
@@ -3876,10 +3928,10 @@
         <v>7</v>
       </c>
       <c r="F62" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="G62" s="6" t="s">
         <v>66</v>
-      </c>
-      <c r="G62" s="6" t="s">
-        <v>67</v>
       </c>
       <c r="K62" s="4"/>
       <c r="L62" s="8"/>
@@ -3889,13 +3941,13 @@
         <v>8</v>
       </c>
       <c r="F63" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="G63" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="G63" s="6" t="s">
+      <c r="I63" s="6" t="s">
         <v>90</v>
-      </c>
-      <c r="I63" s="6" t="s">
-        <v>91</v>
       </c>
       <c r="K63" s="4"/>
       <c r="L63" s="8"/>
@@ -3908,7 +3960,7 @@
         <v>56</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I64" s="6" t="s">
         <v>57</v>
@@ -3921,10 +3973,10 @@
         <v>10</v>
       </c>
       <c r="F65" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G65" s="6" t="s">
         <v>93</v>
-      </c>
-      <c r="G65" s="6" t="s">
-        <v>94</v>
       </c>
       <c r="K65" s="4"/>
       <c r="L65" s="8"/>
@@ -3934,13 +3986,13 @@
         <v>11</v>
       </c>
       <c r="F66" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="G66" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="G66" s="6" t="s">
+      <c r="I66" s="6" t="s">
         <v>96</v>
-      </c>
-      <c r="I66" s="6" t="s">
-        <v>97</v>
       </c>
       <c r="K66" s="4"/>
       <c r="L66" s="8"/>
@@ -3950,10 +4002,10 @@
         <v>12</v>
       </c>
       <c r="F67" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="G67" s="6" t="s">
         <v>98</v>
-      </c>
-      <c r="G67" s="6" t="s">
-        <v>99</v>
       </c>
       <c r="K67" s="4"/>
       <c r="L67" s="8"/>
@@ -3971,16 +4023,16 @@
         <v>36</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E69" s="6">
         <v>1</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I69" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K69" s="4"/>
       <c r="L69" s="8"/>
@@ -4019,7 +4071,7 @@
         <v>46</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I72" s="6" t="s">
         <v>48</v>
@@ -4032,10 +4084,10 @@
         <v>7</v>
       </c>
       <c r="F73" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G73" s="6" t="s">
         <v>66</v>
-      </c>
-      <c r="G73" s="6" t="s">
-        <v>67</v>
       </c>
       <c r="K73" s="4"/>
       <c r="L73" s="8"/>
@@ -4048,7 +4100,7 @@
         <v>56</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I74" s="6" t="s">
         <v>57</v>
@@ -4061,10 +4113,10 @@
         <v>9</v>
       </c>
       <c r="F75" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G75" s="6" t="s">
         <v>93</v>
-      </c>
-      <c r="G75" s="6" t="s">
-        <v>94</v>
       </c>
       <c r="K75" s="4"/>
       <c r="L75" s="8"/>
@@ -4074,10 +4126,10 @@
         <v>10</v>
       </c>
       <c r="F76" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G76" s="6" t="s">
         <v>103</v>
-      </c>
-      <c r="G76" s="6" t="s">
-        <v>104</v>
       </c>
       <c r="K76" s="4"/>
       <c r="L76" s="8"/>
@@ -4087,10 +4139,10 @@
         <v>6</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K77" s="4"/>
       <c r="L77" s="8"/>
@@ -4107,16 +4159,16 @@
         <v>36</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E79" s="6">
         <v>1</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I79" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K79" s="4"/>
       <c r="L79" s="8"/>
@@ -4140,7 +4192,7 @@
         <v>3</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G81" s="6" t="s">
         <v>45</v>
@@ -4153,10 +4205,10 @@
         <v>4</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G82" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K82" s="4"/>
       <c r="L82" s="8"/>
@@ -4198,10 +4250,10 @@
         <v>7</v>
       </c>
       <c r="F85" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G85" s="6" t="s">
         <v>66</v>
-      </c>
-      <c r="G85" s="6" t="s">
-        <v>67</v>
       </c>
       <c r="K85" s="4"/>
       <c r="L85" s="8"/>
@@ -4214,7 +4266,7 @@
         <v>56</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I86" s="6" t="s">
         <v>57</v>
@@ -4227,10 +4279,10 @@
         <v>9</v>
       </c>
       <c r="F87" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G87" s="6" t="s">
         <v>93</v>
-      </c>
-      <c r="G87" s="6" t="s">
-        <v>94</v>
       </c>
       <c r="K87" s="4"/>
       <c r="L87" s="8"/>
@@ -4240,10 +4292,10 @@
         <v>10</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>106</v>
+        <v>59</v>
       </c>
       <c r="G88" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K88" s="4"/>
       <c r="L88" s="8"/>
@@ -4253,13 +4305,13 @@
         <v>11</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G89" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="I89" s="6" t="s">
         <v>107</v>
-      </c>
-      <c r="I89" s="6" t="s">
-        <v>108</v>
       </c>
       <c r="K89" s="4"/>
       <c r="L89" s="8"/>
@@ -4269,10 +4321,10 @@
         <v>12</v>
       </c>
       <c r="F90" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G90" s="6" t="s">
         <v>109</v>
-      </c>
-      <c r="G90" s="6" t="s">
-        <v>110</v>
       </c>
       <c r="K90" s="4"/>
       <c r="L90" s="8"/>
@@ -4289,16 +4341,16 @@
         <v>36</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E92" s="6">
         <v>1</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I92" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K92" s="4"/>
       <c r="L92" s="8"/>
@@ -4335,13 +4387,13 @@
         <v>4</v>
       </c>
       <c r="F95" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="G95" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="G95" s="6" t="s">
+      <c r="I95" s="6" t="s">
         <v>113</v>
-      </c>
-      <c r="I95" s="6" t="s">
-        <v>114</v>
       </c>
       <c r="K95" s="4"/>
       <c r="L95" s="8"/>
@@ -4383,10 +4435,10 @@
         <v>7</v>
       </c>
       <c r="F98" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G98" s="6" t="s">
         <v>66</v>
-      </c>
-      <c r="G98" s="6" t="s">
-        <v>67</v>
       </c>
       <c r="K98" s="4"/>
       <c r="L98" s="8"/>
@@ -4399,7 +4451,7 @@
         <v>56</v>
       </c>
       <c r="G99" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I99" s="6" t="s">
         <v>57</v>
@@ -4412,10 +4464,10 @@
         <v>9</v>
       </c>
       <c r="F100" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G100" s="6" t="s">
         <v>93</v>
-      </c>
-      <c r="G100" s="6" t="s">
-        <v>94</v>
       </c>
       <c r="K100" s="4"/>
       <c r="L100" s="8"/>
@@ -4425,10 +4477,10 @@
         <v>10</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>106</v>
+        <v>59</v>
       </c>
       <c r="G101" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K101" s="4"/>
       <c r="L101" s="8"/>
@@ -4438,10 +4490,10 @@
         <v>11</v>
       </c>
       <c r="F102" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="I102" s="6" t="s">
         <v>116</v>
-      </c>
-      <c r="I102" s="6" t="s">
-        <v>117</v>
       </c>
       <c r="K102" s="4"/>
       <c r="L102" s="8"/>
@@ -4462,16 +4514,16 @@
         <v>36</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E105" s="6">
         <v>1</v>
       </c>
       <c r="F105" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I105" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K105" s="4"/>
       <c r="L105" s="8"/>
@@ -4508,13 +4560,13 @@
         <v>4</v>
       </c>
       <c r="F108" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="G108" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="G108" s="6" t="s">
+      <c r="I108" s="6" t="s">
         <v>113</v>
-      </c>
-      <c r="I108" s="6" t="s">
-        <v>114</v>
       </c>
       <c r="K108" s="4"/>
       <c r="L108" s="8"/>
@@ -4556,10 +4608,10 @@
         <v>7</v>
       </c>
       <c r="F111" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G111" s="6" t="s">
         <v>66</v>
-      </c>
-      <c r="G111" s="6" t="s">
-        <v>67</v>
       </c>
       <c r="K111" s="4"/>
       <c r="L111" s="8"/>
@@ -4572,7 +4624,7 @@
         <v>56</v>
       </c>
       <c r="G112" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I112" s="6" t="s">
         <v>57</v>
@@ -4585,10 +4637,10 @@
         <v>9</v>
       </c>
       <c r="F113" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G113" s="6" t="s">
         <v>93</v>
-      </c>
-      <c r="G113" s="6" t="s">
-        <v>94</v>
       </c>
       <c r="K113" s="4"/>
       <c r="L113" s="8"/>
@@ -4598,10 +4650,10 @@
         <v>10</v>
       </c>
       <c r="F114" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G114" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K114" s="4"/>
       <c r="L114" s="8"/>
@@ -4611,13 +4663,13 @@
         <v>11</v>
       </c>
       <c r="F115" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="G115" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="G115" s="6" t="s">
+      <c r="I115" s="6" t="s">
         <v>120</v>
-      </c>
-      <c r="I115" s="6" t="s">
-        <v>121</v>
       </c>
       <c r="K115" s="4"/>
       <c r="L115" s="8"/>
@@ -4627,13 +4679,13 @@
         <v>12</v>
       </c>
       <c r="F116" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="G116" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="G116" s="6" t="s">
+      <c r="I116" s="6" t="s">
         <v>123</v>
-      </c>
-      <c r="I116" s="6" t="s">
-        <v>124</v>
       </c>
       <c r="K116" s="4"/>
       <c r="L116" s="8"/>
@@ -4643,7 +4695,7 @@
         <v>13</v>
       </c>
       <c r="F117" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K117" s="4"/>
       <c r="L117" s="8"/>
@@ -4660,16 +4712,16 @@
         <v>36</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E119" s="6">
         <v>1</v>
       </c>
       <c r="F119" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I119" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K119" s="4"/>
       <c r="L119" s="8"/>
@@ -4706,13 +4758,13 @@
         <v>4</v>
       </c>
       <c r="F122" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="G122" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="G122" s="6" t="s">
+      <c r="I122" s="6" t="s">
         <v>113</v>
-      </c>
-      <c r="I122" s="6" t="s">
-        <v>114</v>
       </c>
       <c r="K122" s="4"/>
       <c r="L122" s="8"/>
@@ -4754,10 +4806,10 @@
         <v>7</v>
       </c>
       <c r="F125" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G125" s="6" t="s">
         <v>66</v>
-      </c>
-      <c r="G125" s="6" t="s">
-        <v>67</v>
       </c>
       <c r="K125" s="4"/>
       <c r="L125" s="8"/>
@@ -4770,7 +4822,7 @@
         <v>56</v>
       </c>
       <c r="G126" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I126" s="6" t="s">
         <v>57</v>
@@ -4783,10 +4835,10 @@
         <v>9</v>
       </c>
       <c r="F127" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G127" s="6" t="s">
         <v>93</v>
-      </c>
-      <c r="G127" s="6" t="s">
-        <v>94</v>
       </c>
       <c r="K127" s="4"/>
       <c r="L127" s="8"/>
@@ -4796,10 +4848,10 @@
         <v>10</v>
       </c>
       <c r="F128" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G128" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K128" s="4"/>
       <c r="L128" s="8"/>
@@ -4809,13 +4861,13 @@
         <v>11</v>
       </c>
       <c r="F129" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="G129" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="G129" s="6" t="s">
+      <c r="I129" s="6" t="s">
         <v>128</v>
-      </c>
-      <c r="I129" s="6" t="s">
-        <v>129</v>
       </c>
       <c r="K129" s="4"/>
       <c r="L129" s="8"/>
@@ -4825,13 +4877,13 @@
         <v>12</v>
       </c>
       <c r="F130" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="G130" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="G130" s="6" t="s">
-        <v>123</v>
-      </c>
       <c r="I130" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K130" s="4"/>
       <c r="L130" s="8"/>
@@ -4841,7 +4893,7 @@
         <v>13</v>
       </c>
       <c r="F131" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K131" s="4"/>
       <c r="L131" s="8"/>
@@ -4858,16 +4910,16 @@
         <v>36</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E133" s="6">
         <v>1</v>
       </c>
       <c r="F133" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I133" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K133" s="4"/>
       <c r="L133" s="8"/>
@@ -4904,13 +4956,13 @@
         <v>4</v>
       </c>
       <c r="F136" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="G136" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="G136" s="6" t="s">
+      <c r="I136" s="6" t="s">
         <v>113</v>
-      </c>
-      <c r="I136" s="6" t="s">
-        <v>114</v>
       </c>
       <c r="K136" s="4"/>
       <c r="L136" s="8"/>
@@ -4952,10 +5004,10 @@
         <v>7</v>
       </c>
       <c r="F139" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G139" s="6" t="s">
         <v>66</v>
-      </c>
-      <c r="G139" s="6" t="s">
-        <v>67</v>
       </c>
       <c r="K139" s="4"/>
       <c r="L139" s="8"/>
@@ -4968,7 +5020,7 @@
         <v>56</v>
       </c>
       <c r="G140" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I140" s="6" t="s">
         <v>57</v>
@@ -4981,10 +5033,10 @@
         <v>9</v>
       </c>
       <c r="F141" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G141" s="6" t="s">
         <v>93</v>
-      </c>
-      <c r="G141" s="6" t="s">
-        <v>94</v>
       </c>
       <c r="K141" s="4"/>
       <c r="L141" s="8"/>
@@ -4994,10 +5046,10 @@
         <v>10</v>
       </c>
       <c r="F142" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G142" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K142" s="4"/>
       <c r="L142" s="8"/>
@@ -5007,13 +5059,13 @@
         <v>11</v>
       </c>
       <c r="F143" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="G143" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I143" s="6" t="s">
         <v>131</v>
-      </c>
-      <c r="G143" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="I143" s="6" t="s">
-        <v>132</v>
       </c>
       <c r="K143" s="4"/>
       <c r="L143" s="8"/>
@@ -5023,7 +5075,7 @@
         <v>12</v>
       </c>
       <c r="F144" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K144" s="4"/>
       <c r="L144" s="8"/>
@@ -5040,16 +5092,16 @@
         <v>36</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E146" s="6">
         <v>1</v>
       </c>
       <c r="F146" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I146" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K146" s="4"/>
       <c r="L146" s="8"/>
@@ -5086,13 +5138,13 @@
         <v>4</v>
       </c>
       <c r="F149" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="G149" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="G149" s="6" t="s">
+      <c r="I149" s="6" t="s">
         <v>113</v>
-      </c>
-      <c r="I149" s="6" t="s">
-        <v>114</v>
       </c>
       <c r="K149" s="4"/>
       <c r="L149" s="8"/>
@@ -5134,10 +5186,10 @@
         <v>7</v>
       </c>
       <c r="F152" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G152" s="6" t="s">
         <v>66</v>
-      </c>
-      <c r="G152" s="6" t="s">
-        <v>67</v>
       </c>
       <c r="K152" s="4"/>
       <c r="L152" s="8"/>
@@ -5150,7 +5202,7 @@
         <v>56</v>
       </c>
       <c r="G153" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I153" s="6" t="s">
         <v>57</v>
@@ -5163,10 +5215,10 @@
         <v>9</v>
       </c>
       <c r="F154" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G154" s="6" t="s">
         <v>93</v>
-      </c>
-      <c r="G154" s="6" t="s">
-        <v>94</v>
       </c>
       <c r="K154" s="4"/>
       <c r="L154" s="8"/>
@@ -5176,10 +5228,10 @@
         <v>10</v>
       </c>
       <c r="F155" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G155" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K155" s="4"/>
       <c r="L155" s="8"/>
@@ -5189,10 +5241,10 @@
         <v>11</v>
       </c>
       <c r="F156" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I156" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K156" s="4"/>
       <c r="L156" s="8"/>
@@ -5202,13 +5254,13 @@
         <v>12</v>
       </c>
       <c r="F157" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G157" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I157" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K157" s="4"/>
       <c r="L157" s="8"/>
@@ -5218,7 +5270,7 @@
         <v>13</v>
       </c>
       <c r="F158" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K158" s="4"/>
       <c r="L158" s="8"/>
@@ -5235,16 +5287,16 @@
         <v>36</v>
       </c>
       <c r="D160" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E160" s="6">
         <v>1</v>
       </c>
       <c r="F160" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I160" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K160" s="4"/>
       <c r="L160" s="8"/>
@@ -5281,13 +5333,13 @@
         <v>4</v>
       </c>
       <c r="F163" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="G163" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="G163" s="6" t="s">
+      <c r="I163" s="6" t="s">
         <v>113</v>
-      </c>
-      <c r="I163" s="6" t="s">
-        <v>114</v>
       </c>
       <c r="K163" s="4"/>
       <c r="L163" s="8"/>
@@ -5329,10 +5381,10 @@
         <v>7</v>
       </c>
       <c r="F166" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G166" s="6" t="s">
         <v>66</v>
-      </c>
-      <c r="G166" s="6" t="s">
-        <v>67</v>
       </c>
       <c r="K166" s="4"/>
       <c r="L166" s="8"/>
@@ -5345,7 +5397,7 @@
         <v>56</v>
       </c>
       <c r="G167" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I167" s="6" t="s">
         <v>57</v>
@@ -5358,10 +5410,10 @@
         <v>9</v>
       </c>
       <c r="F168" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G168" s="6" t="s">
         <v>93</v>
-      </c>
-      <c r="G168" s="6" t="s">
-        <v>94</v>
       </c>
       <c r="K168" s="4"/>
       <c r="L168" s="8"/>
@@ -5371,10 +5423,10 @@
         <v>10</v>
       </c>
       <c r="F169" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G169" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K169" s="4"/>
       <c r="L169" s="8"/>
@@ -5384,10 +5436,10 @@
         <v>11</v>
       </c>
       <c r="F170" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I170" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K170" s="4"/>
       <c r="L170" s="8"/>
@@ -5397,13 +5449,13 @@
         <v>12</v>
       </c>
       <c r="F171" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="G171" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="G171" s="6" t="s">
+      <c r="I171" s="6" t="s">
         <v>128</v>
-      </c>
-      <c r="I171" s="6" t="s">
-        <v>129</v>
       </c>
       <c r="K171" s="4"/>
       <c r="L171" s="8"/>
@@ -5413,13 +5465,13 @@
         <v>13</v>
       </c>
       <c r="F172" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="G172" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="G172" s="6" t="s">
-        <v>123</v>
-      </c>
       <c r="I172" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K172" s="4"/>
       <c r="L172" s="8"/>
@@ -5429,7 +5481,7 @@
         <v>14</v>
       </c>
       <c r="F173" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K173" s="4"/>
       <c r="L173" s="8"/>
@@ -5446,16 +5498,16 @@
         <v>36</v>
       </c>
       <c r="D175" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E175" s="6">
         <v>1</v>
       </c>
       <c r="F175" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I175" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K175" s="4"/>
       <c r="L175" s="8"/>
@@ -5492,13 +5544,13 @@
         <v>4</v>
       </c>
       <c r="F178" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="G178" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="G178" s="6" t="s">
+      <c r="I178" s="6" t="s">
         <v>113</v>
-      </c>
-      <c r="I178" s="6" t="s">
-        <v>114</v>
       </c>
       <c r="K178" s="4"/>
       <c r="L178" s="8"/>
@@ -5540,10 +5592,10 @@
         <v>7</v>
       </c>
       <c r="F181" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G181" s="6" t="s">
         <v>66</v>
-      </c>
-      <c r="G181" s="6" t="s">
-        <v>67</v>
       </c>
       <c r="K181" s="4"/>
       <c r="L181" s="8"/>
@@ -5556,7 +5608,7 @@
         <v>56</v>
       </c>
       <c r="G182" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I182" s="6" t="s">
         <v>57</v>
@@ -5569,10 +5621,10 @@
         <v>9</v>
       </c>
       <c r="F183" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G183" s="6" t="s">
         <v>93</v>
-      </c>
-      <c r="G183" s="6" t="s">
-        <v>94</v>
       </c>
       <c r="K183" s="4"/>
       <c r="L183" s="8"/>
@@ -5582,10 +5634,10 @@
         <v>10</v>
       </c>
       <c r="F184" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G184" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K184" s="4"/>
       <c r="L184" s="8"/>
@@ -5595,10 +5647,10 @@
         <v>11</v>
       </c>
       <c r="F185" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I185" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K185" s="4"/>
       <c r="L185" s="8"/>
@@ -5608,13 +5660,13 @@
         <v>12</v>
       </c>
       <c r="F186" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G186" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I186" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K186" s="4"/>
       <c r="L186" s="8"/>
@@ -5624,7 +5676,7 @@
         <v>13</v>
       </c>
       <c r="F187" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K187" s="4"/>
       <c r="L187" s="8"/>
@@ -5641,16 +5693,16 @@
         <v>36</v>
       </c>
       <c r="D189" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E189" s="6">
         <v>1</v>
       </c>
       <c r="F189" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I189" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K189" s="4"/>
       <c r="L189" s="8"/>
@@ -5687,13 +5739,13 @@
         <v>4</v>
       </c>
       <c r="F192" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="G192" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="G192" s="6" t="s">
+      <c r="I192" s="6" t="s">
         <v>113</v>
-      </c>
-      <c r="I192" s="6" t="s">
-        <v>114</v>
       </c>
       <c r="K192" s="4"/>
       <c r="L192" s="8"/>
@@ -5735,10 +5787,10 @@
         <v>7</v>
       </c>
       <c r="F195" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G195" s="6" t="s">
         <v>66</v>
-      </c>
-      <c r="G195" s="6" t="s">
-        <v>67</v>
       </c>
       <c r="K195" s="4"/>
       <c r="L195" s="8"/>
@@ -5751,7 +5803,7 @@
         <v>56</v>
       </c>
       <c r="G196" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I196" s="6" t="s">
         <v>57</v>
@@ -5764,10 +5816,10 @@
         <v>9</v>
       </c>
       <c r="F197" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G197" s="6" t="s">
         <v>93</v>
-      </c>
-      <c r="G197" s="6" t="s">
-        <v>94</v>
       </c>
       <c r="K197" s="4"/>
       <c r="L197" s="8"/>
@@ -5777,10 +5829,10 @@
         <v>10</v>
       </c>
       <c r="F198" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G198" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K198" s="4"/>
       <c r="L198" s="8"/>
@@ -5790,13 +5842,13 @@
         <v>11</v>
       </c>
       <c r="F199" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G199" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I199" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K199" s="4"/>
       <c r="L199" s="8"/>
@@ -5806,13 +5858,13 @@
         <v>12</v>
       </c>
       <c r="F200" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="G200" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="G200" s="6" t="s">
-        <v>123</v>
-      </c>
       <c r="I200" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K200" s="4"/>
       <c r="L200" s="8"/>
@@ -5822,7 +5874,7 @@
         <v>13</v>
       </c>
       <c r="F201" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K201" s="4"/>
       <c r="L201" s="8"/>
@@ -5839,16 +5891,16 @@
         <v>36</v>
       </c>
       <c r="D203" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E203" s="6">
         <v>1</v>
       </c>
       <c r="F203" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I203" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K203" s="4"/>
       <c r="L203" s="8"/>
@@ -5885,13 +5937,13 @@
         <v>4</v>
       </c>
       <c r="F206" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="G206" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="G206" s="6" t="s">
+      <c r="I206" s="6" t="s">
         <v>113</v>
-      </c>
-      <c r="I206" s="6" t="s">
-        <v>114</v>
       </c>
       <c r="K206" s="4"/>
       <c r="L206" s="8"/>
@@ -5933,10 +5985,10 @@
         <v>7</v>
       </c>
       <c r="F209" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G209" s="6" t="s">
         <v>66</v>
-      </c>
-      <c r="G209" s="6" t="s">
-        <v>67</v>
       </c>
       <c r="K209" s="4"/>
       <c r="L209" s="8"/>
@@ -5949,7 +6001,7 @@
         <v>56</v>
       </c>
       <c r="G210" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I210" s="6" t="s">
         <v>57</v>
@@ -5962,10 +6014,10 @@
         <v>9</v>
       </c>
       <c r="F211" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G211" s="6" t="s">
         <v>93</v>
-      </c>
-      <c r="G211" s="6" t="s">
-        <v>94</v>
       </c>
       <c r="K211" s="4"/>
       <c r="L211" s="8"/>
@@ -5975,10 +6027,10 @@
         <v>10</v>
       </c>
       <c r="F212" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G212" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K212" s="4"/>
       <c r="L212" s="8"/>
@@ -5988,13 +6040,13 @@
         <v>11</v>
       </c>
       <c r="F213" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G213" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I213" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K213" s="4"/>
       <c r="L213" s="8"/>
@@ -6004,13 +6056,13 @@
         <v>12</v>
       </c>
       <c r="F214" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="G214" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="G214" s="6" t="s">
+      <c r="I214" s="6" t="s">
         <v>128</v>
-      </c>
-      <c r="I214" s="6" t="s">
-        <v>129</v>
       </c>
       <c r="K214" s="4"/>
       <c r="L214" s="8"/>
@@ -6020,13 +6072,13 @@
         <v>13</v>
       </c>
       <c r="F215" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="G215" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="G215" s="6" t="s">
-        <v>123</v>
-      </c>
       <c r="I215" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K215" s="4"/>
       <c r="L215" s="8"/>
@@ -6036,7 +6088,7 @@
         <v>14</v>
       </c>
       <c r="F216" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K216" s="4"/>
       <c r="L216" s="8"/>
@@ -6047,22 +6099,22 @@
     </row>
     <row r="218" spans="1:12" ht="45">
       <c r="A218" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B218" s="18" t="s">
         <v>36</v>
       </c>
       <c r="D218" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E218" s="6">
         <v>1</v>
       </c>
       <c r="F218" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I218" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K218" s="4"/>
       <c r="L218" s="8"/>
@@ -6099,13 +6151,13 @@
         <v>4</v>
       </c>
       <c r="F221" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="G221" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="G221" s="6" t="s">
+      <c r="I221" s="6" t="s">
         <v>113</v>
-      </c>
-      <c r="I221" s="6" t="s">
-        <v>114</v>
       </c>
       <c r="K221" s="4"/>
       <c r="L221" s="8"/>
@@ -6147,10 +6199,10 @@
         <v>7</v>
       </c>
       <c r="F224" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G224" s="6" t="s">
         <v>66</v>
-      </c>
-      <c r="G224" s="6" t="s">
-        <v>67</v>
       </c>
       <c r="K224" s="4"/>
       <c r="L224" s="8"/>
@@ -6163,7 +6215,7 @@
         <v>56</v>
       </c>
       <c r="G225" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I225" s="6" t="s">
         <v>57</v>
@@ -6176,10 +6228,10 @@
         <v>9</v>
       </c>
       <c r="F226" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G226" s="6" t="s">
         <v>93</v>
-      </c>
-      <c r="G226" s="6" t="s">
-        <v>94</v>
       </c>
       <c r="K226" s="4"/>
       <c r="L226" s="8"/>
@@ -6189,10 +6241,10 @@
         <v>10</v>
       </c>
       <c r="F227" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G227" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K227" s="4"/>
       <c r="L227" s="8"/>
@@ -6202,13 +6254,13 @@
         <v>11</v>
       </c>
       <c r="F228" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G228" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I228" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K228" s="4"/>
       <c r="L228" s="8"/>
@@ -6218,7 +6270,7 @@
         <v>12</v>
       </c>
       <c r="F229" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K229" s="4"/>
       <c r="L229" s="8"/>
@@ -6229,22 +6281,22 @@
     </row>
     <row r="231" spans="1:12" ht="45">
       <c r="A231" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B231" s="18" t="s">
         <v>36</v>
       </c>
       <c r="D231" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E231" s="6">
         <v>1</v>
       </c>
       <c r="F231" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I231" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K231" s="4"/>
       <c r="L231" s="8"/>
@@ -6281,13 +6333,13 @@
         <v>4</v>
       </c>
       <c r="F234" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="G234" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="G234" s="6" t="s">
+      <c r="I234" s="6" t="s">
         <v>113</v>
-      </c>
-      <c r="I234" s="6" t="s">
-        <v>114</v>
       </c>
       <c r="K234" s="4"/>
       <c r="L234" s="8"/>
@@ -6329,10 +6381,10 @@
         <v>7</v>
       </c>
       <c r="F237" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G237" s="6" t="s">
         <v>66</v>
-      </c>
-      <c r="G237" s="6" t="s">
-        <v>67</v>
       </c>
       <c r="K237" s="4"/>
       <c r="L237" s="8"/>
@@ -6345,7 +6397,7 @@
         <v>56</v>
       </c>
       <c r="G238" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I238" s="6" t="s">
         <v>57</v>
@@ -6358,10 +6410,10 @@
         <v>9</v>
       </c>
       <c r="F239" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G239" s="6" t="s">
         <v>93</v>
-      </c>
-      <c r="G239" s="6" t="s">
-        <v>94</v>
       </c>
       <c r="K239" s="4"/>
       <c r="L239" s="8"/>
@@ -6371,10 +6423,10 @@
         <v>10</v>
       </c>
       <c r="F240" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G240" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K240" s="4"/>
       <c r="L240" s="8"/>
@@ -6384,13 +6436,13 @@
         <v>11</v>
       </c>
       <c r="F241" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G241" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I241" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K241" s="4"/>
       <c r="L241" s="8"/>
@@ -6400,10 +6452,10 @@
         <v>12</v>
       </c>
       <c r="F242" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G242" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K242" s="4"/>
       <c r="L242" s="8"/>
@@ -6414,22 +6466,22 @@
     </row>
     <row r="244" spans="1:12" ht="45">
       <c r="A244" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B244" s="18" t="s">
         <v>36</v>
       </c>
       <c r="D244" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E244" s="6">
         <v>1</v>
       </c>
       <c r="F244" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I244" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K244" s="4"/>
       <c r="L244" s="8"/>
@@ -6466,13 +6518,13 @@
         <v>4</v>
       </c>
       <c r="F247" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="G247" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="G247" s="6" t="s">
+      <c r="I247" s="6" t="s">
         <v>113</v>
-      </c>
-      <c r="I247" s="6" t="s">
-        <v>114</v>
       </c>
       <c r="K247" s="4"/>
       <c r="L247" s="8"/>
@@ -6514,10 +6566,10 @@
         <v>7</v>
       </c>
       <c r="F250" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G250" s="6" t="s">
         <v>66</v>
-      </c>
-      <c r="G250" s="6" t="s">
-        <v>67</v>
       </c>
       <c r="K250" s="4"/>
       <c r="L250" s="8"/>
@@ -6530,7 +6582,7 @@
         <v>56</v>
       </c>
       <c r="G251" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I251" s="6" t="s">
         <v>57</v>
@@ -6543,10 +6595,10 @@
         <v>9</v>
       </c>
       <c r="F252" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G252" s="6" t="s">
         <v>93</v>
-      </c>
-      <c r="G252" s="6" t="s">
-        <v>94</v>
       </c>
       <c r="K252" s="4"/>
       <c r="L252" s="8"/>
@@ -6556,10 +6608,10 @@
         <v>10</v>
       </c>
       <c r="F253" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G253" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K253" s="4"/>
       <c r="L253" s="8"/>
@@ -6569,13 +6621,13 @@
         <v>11</v>
       </c>
       <c r="F254" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G254" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I254" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K254" s="4"/>
       <c r="L254" s="8"/>
@@ -6585,7 +6637,7 @@
         <v>12</v>
       </c>
       <c r="F255" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K255" s="4"/>
       <c r="L255" s="8"/>
@@ -6596,22 +6648,22 @@
     </row>
     <row r="257" spans="1:12" ht="45">
       <c r="A257" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B257" s="18" t="s">
         <v>36</v>
       </c>
       <c r="D257" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E257" s="6">
         <v>1</v>
       </c>
       <c r="F257" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I257" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K257" s="4"/>
       <c r="L257" s="8"/>
@@ -6648,13 +6700,13 @@
         <v>4</v>
       </c>
       <c r="F260" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="G260" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="G260" s="6" t="s">
+      <c r="I260" s="6" t="s">
         <v>113</v>
-      </c>
-      <c r="I260" s="6" t="s">
-        <v>114</v>
       </c>
       <c r="K260" s="4"/>
       <c r="L260" s="8"/>
@@ -6696,10 +6748,10 @@
         <v>7</v>
       </c>
       <c r="F263" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G263" s="6" t="s">
         <v>66</v>
-      </c>
-      <c r="G263" s="6" t="s">
-        <v>67</v>
       </c>
       <c r="K263" s="4"/>
       <c r="L263" s="8"/>
@@ -6712,7 +6764,7 @@
         <v>56</v>
       </c>
       <c r="G264" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I264" s="6" t="s">
         <v>57</v>
@@ -6725,10 +6777,10 @@
         <v>9</v>
       </c>
       <c r="F265" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G265" s="6" t="s">
         <v>93</v>
-      </c>
-      <c r="G265" s="6" t="s">
-        <v>94</v>
       </c>
       <c r="K265" s="4"/>
       <c r="L265" s="8"/>
@@ -6738,10 +6790,10 @@
         <v>10</v>
       </c>
       <c r="F266" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G266" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K266" s="4"/>
       <c r="L266" s="8"/>
@@ -6751,13 +6803,13 @@
         <v>11</v>
       </c>
       <c r="F267" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G267" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I267" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K267" s="4"/>
       <c r="L267" s="8"/>
@@ -6767,10 +6819,10 @@
         <v>12</v>
       </c>
       <c r="F268" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G268" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K268" s="4"/>
       <c r="L268" s="8"/>
@@ -6781,22 +6833,22 @@
     </row>
     <row r="270" spans="1:12" ht="45">
       <c r="A270" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B270" s="18" t="s">
         <v>36</v>
       </c>
       <c r="D270" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E270" s="6">
         <v>1</v>
       </c>
       <c r="F270" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I270" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K270" s="4"/>
       <c r="L270" s="8"/>
@@ -6833,13 +6885,13 @@
         <v>4</v>
       </c>
       <c r="F273" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="G273" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="G273" s="6" t="s">
+      <c r="I273" s="6" t="s">
         <v>113</v>
-      </c>
-      <c r="I273" s="6" t="s">
-        <v>114</v>
       </c>
       <c r="K273" s="4"/>
       <c r="L273" s="8"/>
@@ -6881,10 +6933,10 @@
         <v>7</v>
       </c>
       <c r="F276" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G276" s="6" t="s">
         <v>66</v>
-      </c>
-      <c r="G276" s="6" t="s">
-        <v>67</v>
       </c>
       <c r="K276" s="4"/>
       <c r="L276" s="8"/>
@@ -6897,7 +6949,7 @@
         <v>56</v>
       </c>
       <c r="G277" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I277" s="6" t="s">
         <v>57</v>
@@ -6910,10 +6962,10 @@
         <v>9</v>
       </c>
       <c r="F278" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G278" s="6" t="s">
         <v>93</v>
-      </c>
-      <c r="G278" s="6" t="s">
-        <v>94</v>
       </c>
       <c r="K278" s="4"/>
       <c r="L278" s="8"/>
@@ -6923,10 +6975,10 @@
         <v>10</v>
       </c>
       <c r="F279" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G279" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K279" s="4"/>
       <c r="L279" s="8"/>
@@ -6936,13 +6988,13 @@
         <v>11</v>
       </c>
       <c r="F280" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="G280" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="G280" s="6" t="s">
+      <c r="I280" s="6" t="s">
         <v>120</v>
-      </c>
-      <c r="I280" s="6" t="s">
-        <v>121</v>
       </c>
       <c r="K280" s="4"/>
       <c r="L280" s="8"/>
@@ -6952,13 +7004,13 @@
         <v>12</v>
       </c>
       <c r="F281" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G281" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I281" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K281" s="4"/>
       <c r="L281" s="8"/>
@@ -6968,7 +7020,7 @@
         <v>13</v>
       </c>
       <c r="F282" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K282" s="4"/>
       <c r="L282" s="8"/>
@@ -6979,19 +7031,19 @@
     </row>
     <row r="284" spans="1:12" ht="45">
       <c r="A284" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B284" s="18" t="s">
         <v>36</v>
       </c>
       <c r="D284" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F284" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I284" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K284" s="4"/>
       <c r="L284" s="8"/>
@@ -7028,13 +7080,13 @@
         <v>4</v>
       </c>
       <c r="F287" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="G287" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="G287" s="6" t="s">
+      <c r="I287" s="6" t="s">
         <v>113</v>
-      </c>
-      <c r="I287" s="6" t="s">
-        <v>114</v>
       </c>
       <c r="K287" s="4"/>
       <c r="L287" s="8"/>
@@ -7076,10 +7128,10 @@
         <v>7</v>
       </c>
       <c r="F290" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G290" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K290" s="4"/>
       <c r="L290" s="8"/>
@@ -7089,10 +7141,10 @@
         <v>8</v>
       </c>
       <c r="F291" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G291" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I291" s="6" t="s">
         <v>57</v>
@@ -7105,10 +7157,10 @@
         <v>9</v>
       </c>
       <c r="F292" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G292" s="6" t="s">
         <v>93</v>
-      </c>
-      <c r="G292" s="6" t="s">
-        <v>94</v>
       </c>
       <c r="K292" s="4"/>
       <c r="L292" s="8"/>
@@ -7118,10 +7170,10 @@
         <v>10</v>
       </c>
       <c r="F293" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G293" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K293" s="4"/>
       <c r="L293" s="8"/>
@@ -7131,13 +7183,13 @@
         <v>11</v>
       </c>
       <c r="F294" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G294" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="I294" s="6" t="s">
         <v>120</v>
-      </c>
-      <c r="I294" s="6" t="s">
-        <v>121</v>
       </c>
       <c r="K294" s="4"/>
       <c r="L294" s="8"/>
@@ -7147,13 +7199,13 @@
         <v>12</v>
       </c>
       <c r="F295" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G295" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I295" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K295" s="4"/>
       <c r="L295" s="8"/>
@@ -7163,10 +7215,10 @@
         <v>13</v>
       </c>
       <c r="F296" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G296" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K296" s="4"/>
       <c r="L296" s="8"/>
@@ -7177,19 +7229,19 @@
     </row>
     <row r="298" spans="1:12" ht="45">
       <c r="A298" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B298" s="18" t="s">
         <v>36</v>
       </c>
       <c r="D298" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F298" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I298" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K298" s="4"/>
       <c r="L298" s="8"/>
@@ -7226,13 +7278,13 @@
         <v>3</v>
       </c>
       <c r="F301" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G301" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="G301" s="6" t="s">
+      <c r="I301" s="6" t="s">
         <v>178</v>
-      </c>
-      <c r="I301" s="6" t="s">
-        <v>179</v>
       </c>
       <c r="K301" s="4"/>
       <c r="L301" s="8"/>
@@ -7274,10 +7326,10 @@
         <v>6</v>
       </c>
       <c r="F304" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G304" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K304" s="4"/>
       <c r="L304" s="8"/>
@@ -7287,10 +7339,10 @@
         <v>7</v>
       </c>
       <c r="F305" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G305" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I305" s="6" t="s">
         <v>57</v>
@@ -7303,10 +7355,10 @@
         <v>8</v>
       </c>
       <c r="F306" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G306" s="6" t="s">
         <v>93</v>
-      </c>
-      <c r="G306" s="6" t="s">
-        <v>94</v>
       </c>
       <c r="K306" s="4"/>
       <c r="L306" s="8"/>
@@ -7316,10 +7368,10 @@
         <v>9</v>
       </c>
       <c r="F307" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G307" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K307" s="4"/>
       <c r="L307" s="8"/>
@@ -7330,19 +7382,19 @@
     </row>
     <row r="309" spans="1:12" ht="45">
       <c r="A309" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B309" s="18" t="s">
         <v>36</v>
       </c>
       <c r="D309" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F309" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I309" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K309" s="4"/>
       <c r="L309" s="8"/>
@@ -7379,13 +7431,13 @@
         <v>3</v>
       </c>
       <c r="F312" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G312" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="G312" s="6" t="s">
-        <v>178</v>
-      </c>
       <c r="I312" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K312" s="4"/>
       <c r="L312" s="8"/>
@@ -7427,10 +7479,10 @@
         <v>6</v>
       </c>
       <c r="F315" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G315" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K315" s="4"/>
       <c r="L315" s="8"/>
@@ -7440,10 +7492,10 @@
         <v>7</v>
       </c>
       <c r="F316" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G316" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I316" s="6" t="s">
         <v>57</v>
@@ -7456,10 +7508,10 @@
         <v>8</v>
       </c>
       <c r="F317" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G317" s="6" t="s">
         <v>93</v>
-      </c>
-      <c r="G317" s="6" t="s">
-        <v>94</v>
       </c>
       <c r="K317" s="4"/>
       <c r="L317" s="8"/>
@@ -7469,10 +7521,10 @@
         <v>9</v>
       </c>
       <c r="F318" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G318" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K318" s="4"/>
       <c r="L318" s="8"/>
@@ -7483,19 +7535,19 @@
     </row>
     <row r="320" spans="1:12" ht="45">
       <c r="A320" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B320" s="18" t="s">
         <v>36</v>
       </c>
       <c r="D320" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F320" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I320" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K320" s="4"/>
       <c r="L320" s="8"/>
@@ -7532,13 +7584,13 @@
         <v>3</v>
       </c>
       <c r="F323" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G323" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="G323" s="6" t="s">
-        <v>178</v>
-      </c>
       <c r="I323" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K323" s="4"/>
       <c r="L323" s="8"/>
@@ -7580,10 +7632,10 @@
         <v>6</v>
       </c>
       <c r="F326" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G326" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K326" s="4"/>
       <c r="L326" s="8"/>
@@ -7593,10 +7645,10 @@
         <v>7</v>
       </c>
       <c r="F327" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G327" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I327" s="6" t="s">
         <v>57</v>
@@ -7609,10 +7661,10 @@
         <v>8</v>
       </c>
       <c r="F328" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G328" s="6" t="s">
         <v>93</v>
-      </c>
-      <c r="G328" s="6" t="s">
-        <v>94</v>
       </c>
       <c r="K328" s="4"/>
       <c r="L328" s="8"/>
@@ -7622,10 +7674,10 @@
         <v>9</v>
       </c>
       <c r="F329" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G329" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K329" s="4"/>
       <c r="L329" s="8"/>
@@ -7635,10 +7687,10 @@
         <v>10</v>
       </c>
       <c r="F330" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G330" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K330" s="4"/>
       <c r="L330" s="8"/>
@@ -7648,10 +7700,10 @@
         <v>11</v>
       </c>
       <c r="F331" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="G331" s="6" t="s">
         <v>193</v>
-      </c>
-      <c r="G331" s="6" t="s">
-        <v>194</v>
       </c>
       <c r="K331" s="4"/>
       <c r="L331" s="8"/>
@@ -7662,13 +7714,13 @@
     </row>
     <row r="333" spans="1:12" ht="45">
       <c r="A333" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B333" s="18" t="s">
         <v>36</v>
       </c>
       <c r="D333" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E333" s="6">
         <v>1</v>
@@ -7677,7 +7729,7 @@
         <v>40</v>
       </c>
       <c r="I333" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K333" s="4"/>
       <c r="L333" s="8"/>
@@ -7745,10 +7797,10 @@
         <v>6</v>
       </c>
       <c r="F338" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G338" s="6" t="s">
         <v>64</v>
-      </c>
-      <c r="G338" s="6" t="s">
-        <v>65</v>
       </c>
       <c r="K338" s="4"/>
       <c r="L338" s="8"/>
@@ -7758,13 +7810,13 @@
         <v>7</v>
       </c>
       <c r="F339" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="G339" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="I339" s="6" t="s">
         <v>196</v>
-      </c>
-      <c r="G339" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="I339" s="6" t="s">
-        <v>197</v>
       </c>
       <c r="K339" s="4"/>
       <c r="L339" s="8"/>
@@ -7774,13 +7826,13 @@
         <v>8</v>
       </c>
       <c r="F340" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="G340" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="G340" s="6" t="s">
-        <v>90</v>
-      </c>
       <c r="I340" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K340" s="4"/>
       <c r="L340" s="8"/>
@@ -7790,13 +7842,13 @@
         <v>9</v>
       </c>
       <c r="F341" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="G341" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="G341" s="6" t="s">
-        <v>201</v>
-      </c>
       <c r="I341" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K341" s="4"/>
       <c r="L341" s="8"/>
@@ -7806,10 +7858,10 @@
         <v>10</v>
       </c>
       <c r="F342" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G342" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K342" s="4"/>
       <c r="L342" s="8"/>
@@ -7819,10 +7871,10 @@
         <v>9</v>
       </c>
       <c r="F343" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G343" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K343" s="4"/>
       <c r="L343" s="8"/>
@@ -7833,19 +7885,19 @@
     </row>
     <row r="345" spans="1:18" ht="60">
       <c r="A345" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B345" s="18" t="s">
         <v>36</v>
       </c>
       <c r="D345" s="24" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F345" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I345" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K345" s="4"/>
       <c r="L345" s="8"/>
@@ -7872,10 +7924,10 @@
         <v>2</v>
       </c>
       <c r="F347" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="G347" s="23" t="s">
         <v>204</v>
-      </c>
-      <c r="G347" s="23" t="s">
-        <v>205</v>
       </c>
       <c r="I347" s="5"/>
       <c r="J347" s="4"/>
@@ -7888,13 +7940,13 @@
         <v>3</v>
       </c>
       <c r="F348" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="G348" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="G348" s="23" t="s">
+      <c r="I348" s="5" t="s">
         <v>207</v>
-      </c>
-      <c r="I348" s="5" t="s">
-        <v>208</v>
       </c>
       <c r="J348" s="4"/>
       <c r="K348" s="8"/>
@@ -7908,10 +7960,10 @@
         <v>4</v>
       </c>
       <c r="F349" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="G349" s="23" t="s">
         <v>210</v>
-      </c>
-      <c r="G349" s="23" t="s">
-        <v>211</v>
       </c>
       <c r="H349" s="6"/>
       <c r="I349" s="7"/>
@@ -7932,14 +7984,14 @@
         <v>5</v>
       </c>
       <c r="F350" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="G350" s="23" t="s">
         <v>212</v>
-      </c>
-      <c r="G350" s="23" t="s">
-        <v>213</v>
       </c>
       <c r="H350" s="6"/>
       <c r="I350" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J350" s="4"/>
       <c r="K350" s="8"/>
@@ -7969,19 +8021,19 @@
     </row>
     <row r="352" spans="1:18" ht="90">
       <c r="A352" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B352" s="18" t="s">
         <v>36</v>
       </c>
       <c r="D352" s="23" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F352" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I352" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J352" s="4"/>
       <c r="K352" s="8"/>
@@ -8011,10 +8063,10 @@
         <v>2</v>
       </c>
       <c r="F354" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="G354" s="23" t="s">
         <v>204</v>
-      </c>
-      <c r="G354" s="23" t="s">
-        <v>205</v>
       </c>
       <c r="I354" s="5"/>
       <c r="J354" s="4"/>
@@ -8027,13 +8079,13 @@
         <v>3</v>
       </c>
       <c r="F355" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="G355" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="G355" s="23" t="s">
+      <c r="I355" s="5" t="s">
         <v>207</v>
-      </c>
-      <c r="I355" s="5" t="s">
-        <v>208</v>
       </c>
       <c r="J355" s="4"/>
       <c r="K355" s="8"/>
@@ -8047,10 +8099,10 @@
         <v>4</v>
       </c>
       <c r="F356" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="G356" s="23" t="s">
         <v>210</v>
-      </c>
-      <c r="G356" s="23" t="s">
-        <v>211</v>
       </c>
       <c r="H356" s="6"/>
       <c r="I356" s="7"/>
@@ -8067,13 +8119,13 @@
         <v>5</v>
       </c>
       <c r="F357" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="G357" s="23" t="s">
         <v>218</v>
       </c>
-      <c r="G357" s="23" t="s">
-        <v>219</v>
-      </c>
       <c r="I357" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K357" s="4"/>
       <c r="L357" s="8"/>
@@ -8083,10 +8135,10 @@
         <v>6</v>
       </c>
       <c r="F358" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="G358" s="23" t="s">
         <v>220</v>
-      </c>
-      <c r="G358" s="23" t="s">
-        <v>221</v>
       </c>
       <c r="K358" s="4"/>
       <c r="L358" s="8"/>
@@ -8096,7 +8148,7 @@
         <v>7</v>
       </c>
       <c r="F359" s="22" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G359" s="22"/>
       <c r="K359" s="4"/>
@@ -8108,19 +8160,19 @@
     </row>
     <row r="361" spans="1:18" ht="60">
       <c r="A361" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B361" s="18" t="s">
         <v>36</v>
       </c>
       <c r="D361" s="23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F361" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I361" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K361" s="4"/>
       <c r="L361" s="8"/>
@@ -8145,10 +8197,10 @@
         <v>2</v>
       </c>
       <c r="F363" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="G363" s="23" t="s">
         <v>204</v>
-      </c>
-      <c r="G363" s="23" t="s">
-        <v>205</v>
       </c>
       <c r="H363" s="5"/>
       <c r="I363" s="5"/>
@@ -8160,14 +8212,14 @@
         <v>3</v>
       </c>
       <c r="F364" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="G364" s="23" t="s">
         <v>206</v>
-      </c>
-      <c r="G364" s="23" t="s">
-        <v>207</v>
       </c>
       <c r="H364" s="5"/>
       <c r="I364" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K364" s="4"/>
       <c r="L364" s="8"/>
@@ -8177,10 +8229,10 @@
         <v>4</v>
       </c>
       <c r="F365" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="G365" s="23" t="s">
         <v>210</v>
-      </c>
-      <c r="G365" s="23" t="s">
-        <v>211</v>
       </c>
       <c r="K365" s="4"/>
       <c r="L365" s="8"/>
@@ -8190,10 +8242,10 @@
         <v>5</v>
       </c>
       <c r="F366" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="G366" s="23" t="s">
         <v>227</v>
-      </c>
-      <c r="G366" s="23" t="s">
-        <v>228</v>
       </c>
       <c r="K366" s="4"/>
       <c r="L366" s="8"/>
@@ -8203,10 +8255,10 @@
         <v>6</v>
       </c>
       <c r="F367" s="23" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G367" s="23" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K367" s="4"/>
       <c r="L367" s="8"/>
@@ -8216,10 +8268,10 @@
         <v>7</v>
       </c>
       <c r="F368" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="G368" s="23" t="s">
         <v>220</v>
-      </c>
-      <c r="G368" s="23" t="s">
-        <v>221</v>
       </c>
       <c r="K368" s="4"/>
       <c r="L368" s="8"/>
@@ -8229,9 +8281,9 @@
         <v>8</v>
       </c>
       <c r="F369" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="G369" s="27"/>
+        <v>221</v>
+      </c>
+      <c r="G369" s="25"/>
       <c r="K369" s="4"/>
       <c r="L369" s="8"/>
     </row>
@@ -8241,19 +8293,19 @@
     </row>
     <row r="371" spans="1:12" ht="75">
       <c r="A371" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B371" s="18" t="s">
         <v>36</v>
       </c>
       <c r="D371" s="23" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F371" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I371" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K371" s="4"/>
       <c r="L371" s="8"/>
@@ -8278,10 +8330,10 @@
         <v>2</v>
       </c>
       <c r="F373" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="G373" s="23" t="s">
         <v>204</v>
-      </c>
-      <c r="G373" s="23" t="s">
-        <v>205</v>
       </c>
       <c r="H373" s="5"/>
       <c r="I373" s="5"/>
@@ -8293,14 +8345,14 @@
         <v>3</v>
       </c>
       <c r="F374" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="G374" s="23" t="s">
         <v>206</v>
-      </c>
-      <c r="G374" s="23" t="s">
-        <v>207</v>
       </c>
       <c r="H374" s="5"/>
       <c r="I374" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K374" s="4"/>
       <c r="L374" s="8"/>
@@ -8310,10 +8362,10 @@
         <v>4</v>
       </c>
       <c r="F375" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="G375" s="23" t="s">
         <v>210</v>
-      </c>
-      <c r="G375" s="23" t="s">
-        <v>211</v>
       </c>
       <c r="K375" s="4"/>
       <c r="L375" s="8"/>
@@ -8330,10 +8382,10 @@
         <v>5</v>
       </c>
       <c r="F377" s="23" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G377" s="23" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K377" s="4"/>
       <c r="L377" s="8"/>
@@ -8343,10 +8395,10 @@
         <v>6</v>
       </c>
       <c r="F378" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="G378" s="23" t="s">
         <v>220</v>
-      </c>
-      <c r="G378" s="23" t="s">
-        <v>221</v>
       </c>
       <c r="K378" s="4"/>
       <c r="L378" s="8"/>
@@ -8356,7 +8408,7 @@
         <v>7</v>
       </c>
       <c r="F379" s="22" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G379" s="22"/>
       <c r="K379" s="4"/>
@@ -8368,19 +8420,19 @@
     </row>
     <row r="381" spans="1:12" ht="90" customHeight="1">
       <c r="A381" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B381" s="18" t="s">
         <v>36</v>
       </c>
       <c r="D381" s="23" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F381" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I381" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K381" s="4"/>
       <c r="L381" s="8"/>
@@ -8405,10 +8457,10 @@
         <v>2</v>
       </c>
       <c r="F383" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="G383" s="23" t="s">
         <v>204</v>
-      </c>
-      <c r="G383" s="23" t="s">
-        <v>205</v>
       </c>
       <c r="H383" s="5"/>
       <c r="I383" s="5"/>
@@ -8420,14 +8472,14 @@
         <v>3</v>
       </c>
       <c r="F384" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="G384" s="23" t="s">
         <v>206</v>
-      </c>
-      <c r="G384" s="23" t="s">
-        <v>207</v>
       </c>
       <c r="H384" s="5"/>
       <c r="I384" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K384" s="4"/>
       <c r="L384" s="8"/>
@@ -8437,10 +8489,10 @@
         <v>4</v>
       </c>
       <c r="F385" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="G385" s="23" t="s">
         <v>210</v>
-      </c>
-      <c r="G385" s="23" t="s">
-        <v>211</v>
       </c>
       <c r="K385" s="4"/>
       <c r="L385" s="8"/>
@@ -8450,10 +8502,10 @@
         <v>5</v>
       </c>
       <c r="F386" s="23" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G386" s="23" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K386" s="4"/>
       <c r="L386" s="8"/>
@@ -8463,10 +8515,10 @@
         <v>6</v>
       </c>
       <c r="F387" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="G387" s="23" t="s">
         <v>220</v>
-      </c>
-      <c r="G387" s="23" t="s">
-        <v>221</v>
       </c>
       <c r="K387" s="4"/>
       <c r="L387" s="8"/>
@@ -8476,7 +8528,7 @@
         <v>7</v>
       </c>
       <c r="F388" s="22" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G388" s="22"/>
       <c r="K388" s="4"/>
@@ -8488,19 +8540,19 @@
     </row>
     <row r="390" spans="1:12" ht="45">
       <c r="A390" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B390" s="18" t="s">
         <v>36</v>
       </c>
       <c r="D390" s="23" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F390" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I390" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K390" s="4"/>
       <c r="L390" s="8"/>
@@ -8525,10 +8577,10 @@
         <v>2</v>
       </c>
       <c r="F392" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="G392" s="23" t="s">
         <v>204</v>
-      </c>
-      <c r="G392" s="23" t="s">
-        <v>205</v>
       </c>
       <c r="H392" s="5"/>
       <c r="I392" s="5"/>
@@ -8540,14 +8592,14 @@
         <v>3</v>
       </c>
       <c r="F393" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="G393" s="23" t="s">
         <v>206</v>
-      </c>
-      <c r="G393" s="23" t="s">
-        <v>207</v>
       </c>
       <c r="H393" s="5"/>
       <c r="I393" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K393" s="4"/>
       <c r="L393" s="8"/>
@@ -8557,10 +8609,10 @@
         <v>4</v>
       </c>
       <c r="F394" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="G394" s="23" t="s">
         <v>236</v>
-      </c>
-      <c r="G394" s="23" t="s">
-        <v>237</v>
       </c>
       <c r="K394" s="4"/>
       <c r="L394" s="8"/>
@@ -8570,10 +8622,10 @@
         <v>5</v>
       </c>
       <c r="F395" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="G395" s="23" t="s">
         <v>238</v>
-      </c>
-      <c r="G395" s="23" t="s">
-        <v>239</v>
       </c>
       <c r="K395" s="4"/>
       <c r="L395" s="8"/>
@@ -8583,10 +8635,10 @@
         <v>6</v>
       </c>
       <c r="F396" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="G396" s="23" t="s">
         <v>240</v>
-      </c>
-      <c r="G396" s="23" t="s">
-        <v>241</v>
       </c>
       <c r="K396" s="4"/>
       <c r="L396" s="8"/>
@@ -8596,10 +8648,10 @@
         <v>7</v>
       </c>
       <c r="F397" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="G397" s="23" t="s">
         <v>242</v>
-      </c>
-      <c r="G397" s="23" t="s">
-        <v>243</v>
       </c>
       <c r="K397" s="4"/>
       <c r="L397" s="8"/>
@@ -8609,10 +8661,10 @@
         <v>8</v>
       </c>
       <c r="F398" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="G398" s="23" t="s">
         <v>244</v>
-      </c>
-      <c r="G398" s="23" t="s">
-        <v>245</v>
       </c>
       <c r="K398" s="4"/>
       <c r="L398" s="8"/>
@@ -8623,19 +8675,19 @@
     </row>
     <row r="400" spans="1:12" ht="45">
       <c r="A400" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B400" s="18" t="s">
         <v>36</v>
       </c>
       <c r="D400" s="23" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F400" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I400" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K400" s="4"/>
       <c r="L400" s="8"/>
@@ -8660,10 +8712,10 @@
         <v>2</v>
       </c>
       <c r="F402" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="G402" s="23" t="s">
         <v>204</v>
-      </c>
-      <c r="G402" s="23" t="s">
-        <v>205</v>
       </c>
       <c r="H402" s="5"/>
       <c r="I402" s="5"/>
@@ -8675,14 +8727,14 @@
         <v>3</v>
       </c>
       <c r="F403" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="G403" s="23" t="s">
         <v>206</v>
-      </c>
-      <c r="G403" s="23" t="s">
-        <v>207</v>
       </c>
       <c r="H403" s="5"/>
       <c r="I403" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K403" s="4"/>
       <c r="L403" s="8"/>
@@ -8692,10 +8744,10 @@
         <v>4</v>
       </c>
       <c r="F404" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="G404" s="23" t="s">
         <v>236</v>
-      </c>
-      <c r="G404" s="23" t="s">
-        <v>237</v>
       </c>
       <c r="K404" s="4"/>
       <c r="L404" s="8"/>
@@ -8705,10 +8757,10 @@
         <v>5</v>
       </c>
       <c r="F405" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="G405" s="23" t="s">
         <v>240</v>
-      </c>
-      <c r="G405" s="23" t="s">
-        <v>241</v>
       </c>
       <c r="K405" s="4"/>
       <c r="L405" s="8"/>
@@ -8718,10 +8770,10 @@
         <v>6</v>
       </c>
       <c r="F406" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="G406" s="23" t="s">
         <v>242</v>
-      </c>
-      <c r="G406" s="23" t="s">
-        <v>243</v>
       </c>
       <c r="K406" s="4"/>
       <c r="L406" s="8"/>
@@ -8731,10 +8783,10 @@
         <v>7</v>
       </c>
       <c r="F407" s="22" t="s">
+        <v>247</v>
+      </c>
+      <c r="G407" s="23" t="s">
         <v>248</v>
-      </c>
-      <c r="G407" s="23" t="s">
-        <v>249</v>
       </c>
       <c r="K407" s="4"/>
       <c r="L407" s="8"/>
@@ -8744,10 +8796,10 @@
         <v>8</v>
       </c>
       <c r="F408" s="22" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G408" s="23" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K408" s="4"/>
       <c r="L408" s="8"/>
@@ -8757,7 +8809,7 @@
         <v>9</v>
       </c>
       <c r="F409" s="23" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G409" s="22"/>
       <c r="K409" s="4"/>
@@ -8769,19 +8821,19 @@
     </row>
     <row r="411" spans="1:12" ht="90">
       <c r="A411" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B411" s="18" t="s">
         <v>36</v>
       </c>
       <c r="D411" s="23" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F411" s="6" t="s">
-        <v>147</v>
+        <v>518</v>
       </c>
       <c r="I411" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K411" s="4"/>
       <c r="L411" s="8"/>
@@ -8806,10 +8858,10 @@
         <v>2</v>
       </c>
       <c r="F413" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="G413" s="23" t="s">
         <v>204</v>
-      </c>
-      <c r="G413" s="23" t="s">
-        <v>205</v>
       </c>
       <c r="H413" s="5"/>
       <c r="I413" s="5"/>
@@ -8821,14 +8873,14 @@
         <v>3</v>
       </c>
       <c r="F414" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="G414" s="23" t="s">
         <v>206</v>
-      </c>
-      <c r="G414" s="23" t="s">
-        <v>207</v>
       </c>
       <c r="H414" s="5"/>
       <c r="I414" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K414" s="4"/>
       <c r="L414" s="8"/>
@@ -8838,10 +8890,10 @@
         <v>5</v>
       </c>
       <c r="F415" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="G415" s="23" t="s">
         <v>253</v>
-      </c>
-      <c r="G415" s="23" t="s">
-        <v>254</v>
       </c>
       <c r="K415" s="4"/>
       <c r="L415" s="8"/>
@@ -8851,10 +8903,10 @@
         <v>6</v>
       </c>
       <c r="F416" s="23" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G416" s="23" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K416" s="4"/>
       <c r="L416" s="8"/>
@@ -8864,10 +8916,10 @@
         <v>7</v>
       </c>
       <c r="F417" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="G417" s="23" t="s">
         <v>220</v>
-      </c>
-      <c r="G417" s="23" t="s">
-        <v>221</v>
       </c>
       <c r="K417" s="4"/>
       <c r="L417" s="8"/>
@@ -8877,7 +8929,7 @@
         <v>8</v>
       </c>
       <c r="F418" s="22" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G418" s="22"/>
       <c r="K418" s="4"/>
@@ -8889,19 +8941,19 @@
     </row>
     <row r="420" spans="1:12" ht="45">
       <c r="A420" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B420" s="18" t="s">
         <v>36</v>
       </c>
       <c r="D420" s="23" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F420" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I420" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K420" s="4"/>
       <c r="L420" s="8"/>
@@ -8926,10 +8978,10 @@
         <v>2</v>
       </c>
       <c r="F422" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="G422" s="23" t="s">
         <v>204</v>
-      </c>
-      <c r="G422" s="23" t="s">
-        <v>205</v>
       </c>
       <c r="H422" s="5"/>
       <c r="I422" s="5"/>
@@ -8941,14 +8993,14 @@
         <v>3</v>
       </c>
       <c r="F423" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="G423" s="23" t="s">
         <v>206</v>
-      </c>
-      <c r="G423" s="23" t="s">
-        <v>207</v>
       </c>
       <c r="H423" s="5"/>
       <c r="I423" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K423" s="4"/>
       <c r="L423" s="8"/>
@@ -8958,10 +9010,10 @@
         <v>5</v>
       </c>
       <c r="F424" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="G424" s="23" t="s">
         <v>253</v>
-      </c>
-      <c r="G424" s="23" t="s">
-        <v>254</v>
       </c>
       <c r="K424" s="4"/>
       <c r="L424" s="8"/>
@@ -8971,10 +9023,10 @@
         <v>6</v>
       </c>
       <c r="F425" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="G425" s="23" t="s">
         <v>227</v>
-      </c>
-      <c r="G425" s="23" t="s">
-        <v>228</v>
       </c>
       <c r="K425" s="4"/>
       <c r="L425" s="8"/>
@@ -8984,10 +9036,10 @@
         <v>7</v>
       </c>
       <c r="F426" s="23" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G426" s="23" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K426" s="4"/>
       <c r="L426" s="8"/>
@@ -8997,10 +9049,10 @@
         <v>8</v>
       </c>
       <c r="F427" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="G427" s="23" t="s">
         <v>220</v>
-      </c>
-      <c r="G427" s="23" t="s">
-        <v>221</v>
       </c>
       <c r="K427" s="4"/>
       <c r="L427" s="8"/>
@@ -9011,19 +9063,19 @@
     </row>
     <row r="429" spans="1:12" ht="45">
       <c r="A429" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B429" s="18" t="s">
         <v>36</v>
       </c>
       <c r="D429" s="23" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F429" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I429" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K429" s="4"/>
       <c r="L429" s="8"/>
@@ -9048,10 +9100,10 @@
         <v>2</v>
       </c>
       <c r="F431" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="G431" s="23" t="s">
         <v>204</v>
-      </c>
-      <c r="G431" s="23" t="s">
-        <v>205</v>
       </c>
       <c r="H431" s="5"/>
       <c r="I431" s="5"/>
@@ -9063,14 +9115,14 @@
         <v>3</v>
       </c>
       <c r="F432" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="G432" s="23" t="s">
         <v>206</v>
-      </c>
-      <c r="G432" s="23" t="s">
-        <v>207</v>
       </c>
       <c r="H432" s="5"/>
       <c r="I432" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K432" s="4"/>
       <c r="L432" s="8"/>
@@ -9080,10 +9132,10 @@
         <v>5</v>
       </c>
       <c r="F433" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="G433" s="23" t="s">
         <v>253</v>
-      </c>
-      <c r="G433" s="23" t="s">
-        <v>254</v>
       </c>
       <c r="K433" s="4"/>
       <c r="L433" s="8"/>
@@ -9093,10 +9145,10 @@
         <v>6</v>
       </c>
       <c r="F434" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="G434" s="23" t="s">
         <v>227</v>
-      </c>
-      <c r="G434" s="23" t="s">
-        <v>228</v>
       </c>
       <c r="K434" s="4"/>
       <c r="L434" s="8"/>
@@ -9106,10 +9158,10 @@
         <v>7</v>
       </c>
       <c r="F435" s="23" t="s">
+        <v>261</v>
+      </c>
+      <c r="G435" s="23" t="s">
         <v>262</v>
-      </c>
-      <c r="G435" s="23" t="s">
-        <v>263</v>
       </c>
       <c r="K435" s="4"/>
       <c r="L435" s="8"/>
@@ -9120,19 +9172,19 @@
     </row>
     <row r="437" spans="1:12" ht="45">
       <c r="A437" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B437" s="18" t="s">
         <v>36</v>
       </c>
       <c r="D437" s="23" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F437" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I437" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K437" s="4"/>
       <c r="L437" s="8"/>
@@ -9157,10 +9209,10 @@
         <v>2</v>
       </c>
       <c r="F439" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="G439" s="23" t="s">
         <v>204</v>
-      </c>
-      <c r="G439" s="23" t="s">
-        <v>205</v>
       </c>
       <c r="H439" s="5"/>
       <c r="I439" s="5"/>
@@ -9172,14 +9224,14 @@
         <v>3</v>
       </c>
       <c r="F440" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="G440" s="23" t="s">
         <v>206</v>
-      </c>
-      <c r="G440" s="23" t="s">
-        <v>207</v>
       </c>
       <c r="H440" s="5"/>
       <c r="I440" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K440" s="4"/>
       <c r="L440" s="8"/>
@@ -9189,10 +9241,10 @@
         <v>4</v>
       </c>
       <c r="F441" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="G441" s="23" t="s">
         <v>227</v>
-      </c>
-      <c r="G441" s="23" t="s">
-        <v>228</v>
       </c>
       <c r="K441" s="4"/>
       <c r="L441" s="8"/>
@@ -9202,10 +9254,10 @@
         <v>5</v>
       </c>
       <c r="F442" s="23" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G442" s="23" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K442" s="4"/>
       <c r="L442" s="8"/>
@@ -9215,10 +9267,10 @@
         <v>6</v>
       </c>
       <c r="F443" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="G443" s="23" t="s">
         <v>220</v>
-      </c>
-      <c r="G443" s="23" t="s">
-        <v>221</v>
       </c>
       <c r="K443" s="4"/>
       <c r="L443" s="8"/>
@@ -9229,19 +9281,19 @@
     </row>
     <row r="445" spans="1:12" ht="60">
       <c r="A445" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B445" s="18" t="s">
         <v>36</v>
       </c>
       <c r="D445" s="23" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F445" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I445" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K445" s="4"/>
       <c r="L445" s="8"/>
@@ -9266,10 +9318,10 @@
         <v>2</v>
       </c>
       <c r="F447" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="G447" s="23" t="s">
         <v>204</v>
-      </c>
-      <c r="G447" s="23" t="s">
-        <v>205</v>
       </c>
       <c r="H447" s="5"/>
       <c r="I447" s="5"/>
@@ -9281,14 +9333,14 @@
         <v>3</v>
       </c>
       <c r="F448" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="G448" s="23" t="s">
         <v>206</v>
-      </c>
-      <c r="G448" s="23" t="s">
-        <v>207</v>
       </c>
       <c r="H448" s="5"/>
       <c r="I448" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K448" s="4"/>
       <c r="L448" s="8"/>
@@ -9298,10 +9350,10 @@
         <v>4</v>
       </c>
       <c r="F449" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="G449" s="23" t="s">
         <v>271</v>
-      </c>
-      <c r="G449" s="23" t="s">
-        <v>272</v>
       </c>
       <c r="K449" s="4"/>
       <c r="L449" s="8"/>
@@ -9311,10 +9363,10 @@
         <v>5</v>
       </c>
       <c r="F450" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="G450" s="23" t="s">
         <v>273</v>
-      </c>
-      <c r="G450" s="23" t="s">
-        <v>274</v>
       </c>
       <c r="K450" s="4"/>
       <c r="L450" s="8"/>
@@ -9324,10 +9376,10 @@
         <v>6</v>
       </c>
       <c r="F451" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="G451" s="23" t="s">
         <v>212</v>
-      </c>
-      <c r="G451" s="23" t="s">
-        <v>213</v>
       </c>
       <c r="K451" s="4"/>
       <c r="L451" s="8"/>
@@ -9338,19 +9390,19 @@
     </row>
     <row r="453" spans="1:12" ht="45">
       <c r="A453" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B453" s="18" t="s">
         <v>36</v>
       </c>
       <c r="D453" s="23" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F453" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I453" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K453" s="4"/>
       <c r="L453" s="8"/>
@@ -9375,10 +9427,10 @@
         <v>2</v>
       </c>
       <c r="F455" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="G455" s="23" t="s">
         <v>204</v>
-      </c>
-      <c r="G455" s="23" t="s">
-        <v>205</v>
       </c>
       <c r="H455" s="5"/>
       <c r="I455" s="5"/>
@@ -9390,14 +9442,14 @@
         <v>3</v>
       </c>
       <c r="F456" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="G456" s="23" t="s">
         <v>206</v>
-      </c>
-      <c r="G456" s="23" t="s">
-        <v>207</v>
       </c>
       <c r="H456" s="5"/>
       <c r="I456" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K456" s="4"/>
       <c r="L456" s="8"/>
@@ -9407,13 +9459,13 @@
         <v>4</v>
       </c>
       <c r="F457" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="G457" s="22" t="s">
         <v>277</v>
       </c>
-      <c r="G457" s="22" t="s">
-        <v>278</v>
-      </c>
       <c r="I457" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K457" s="4"/>
       <c r="L457" s="8"/>
@@ -9423,10 +9475,10 @@
         <v>5</v>
       </c>
       <c r="F458" s="23" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G458" s="23" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K458" s="4"/>
       <c r="L458" s="8"/>
@@ -9437,19 +9489,19 @@
     </row>
     <row r="460" spans="1:12" ht="45">
       <c r="A460" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B460" s="18" t="s">
         <v>36</v>
       </c>
       <c r="D460" s="23" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F460" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I460" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K460" s="4"/>
       <c r="L460" s="8"/>
@@ -9474,10 +9526,10 @@
         <v>2</v>
       </c>
       <c r="F462" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="G462" s="23" t="s">
         <v>204</v>
-      </c>
-      <c r="G462" s="23" t="s">
-        <v>205</v>
       </c>
       <c r="H462" s="5"/>
       <c r="I462" s="5"/>
@@ -9489,14 +9541,14 @@
         <v>3</v>
       </c>
       <c r="F463" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="G463" s="23" t="s">
         <v>206</v>
-      </c>
-      <c r="G463" s="23" t="s">
-        <v>207</v>
       </c>
       <c r="H463" s="5"/>
       <c r="I463" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K463" s="4"/>
       <c r="L463" s="8"/>
@@ -9506,10 +9558,10 @@
         <v>4</v>
       </c>
       <c r="F464" s="23" t="s">
+        <v>280</v>
+      </c>
+      <c r="G464" s="22" t="s">
         <v>281</v>
-      </c>
-      <c r="G464" s="22" t="s">
-        <v>282</v>
       </c>
       <c r="K464" s="4"/>
       <c r="L464" s="8"/>
@@ -9519,10 +9571,10 @@
         <v>5</v>
       </c>
       <c r="F465" s="23" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G465" s="23" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K465" s="4"/>
       <c r="L465" s="8"/>
@@ -9533,19 +9585,19 @@
     </row>
     <row r="467" spans="1:12" ht="45">
       <c r="A467" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B467" s="18" t="s">
         <v>36</v>
       </c>
       <c r="D467" s="23" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F467" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I467" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K467" s="4"/>
       <c r="L467" s="8"/>
@@ -9570,10 +9622,10 @@
         <v>2</v>
       </c>
       <c r="F469" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="G469" s="23" t="s">
         <v>204</v>
-      </c>
-      <c r="G469" s="23" t="s">
-        <v>205</v>
       </c>
       <c r="H469" s="5"/>
       <c r="I469" s="5"/>
@@ -9585,14 +9637,14 @@
         <v>3</v>
       </c>
       <c r="F470" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="G470" s="23" t="s">
         <v>206</v>
-      </c>
-      <c r="G470" s="23" t="s">
-        <v>207</v>
       </c>
       <c r="H470" s="5"/>
       <c r="I470" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K470" s="4"/>
       <c r="L470" s="8"/>
@@ -9602,13 +9654,13 @@
         <v>4</v>
       </c>
       <c r="F471" s="23" t="s">
+        <v>283</v>
+      </c>
+      <c r="G471" s="23" t="s">
         <v>284</v>
       </c>
-      <c r="G471" s="23" t="s">
-        <v>285</v>
-      </c>
       <c r="I471" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K471" s="4"/>
       <c r="L471" s="8"/>
@@ -9618,10 +9670,10 @@
         <v>5</v>
       </c>
       <c r="F472" s="23" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G472" s="23" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K472" s="4"/>
       <c r="L472" s="8"/>
@@ -9632,19 +9684,19 @@
     </row>
     <row r="474" spans="1:12" ht="60">
       <c r="A474" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B474" s="18" t="s">
         <v>36</v>
       </c>
       <c r="D474" s="23" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F474" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I474" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K474" s="4"/>
       <c r="L474" s="8"/>
@@ -9669,10 +9721,10 @@
         <v>2</v>
       </c>
       <c r="F476" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="G476" s="23" t="s">
         <v>204</v>
-      </c>
-      <c r="G476" s="23" t="s">
-        <v>205</v>
       </c>
       <c r="H476" s="5"/>
       <c r="I476" s="5"/>
@@ -9684,14 +9736,14 @@
         <v>3</v>
       </c>
       <c r="F477" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="G477" s="23" t="s">
         <v>206</v>
-      </c>
-      <c r="G477" s="23" t="s">
-        <v>207</v>
       </c>
       <c r="H477" s="5"/>
       <c r="I477" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K477" s="4"/>
       <c r="L477" s="8"/>
@@ -9701,13 +9753,13 @@
         <v>4</v>
       </c>
       <c r="F478" s="23" t="s">
+        <v>290</v>
+      </c>
+      <c r="G478" s="23" t="s">
         <v>291</v>
       </c>
-      <c r="G478" s="23" t="s">
-        <v>292</v>
-      </c>
       <c r="I478" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K478" s="4"/>
       <c r="L478" s="8"/>
@@ -9717,10 +9769,10 @@
         <v>5</v>
       </c>
       <c r="F479" s="23" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G479" s="23" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K479" s="4"/>
       <c r="L479" s="8"/>
@@ -9731,19 +9783,19 @@
     </row>
     <row r="481" spans="1:12" ht="45">
       <c r="A481" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B481" s="18" t="s">
         <v>36</v>
       </c>
       <c r="D481" s="23" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F481" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I481" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K481" s="4"/>
       <c r="L481" s="8"/>
@@ -9768,10 +9820,10 @@
         <v>2</v>
       </c>
       <c r="F483" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="G483" s="23" t="s">
         <v>204</v>
-      </c>
-      <c r="G483" s="23" t="s">
-        <v>205</v>
       </c>
       <c r="H483" s="5"/>
       <c r="I483" s="5"/>
@@ -9783,14 +9835,14 @@
         <v>3</v>
       </c>
       <c r="F484" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="G484" s="23" t="s">
         <v>206</v>
-      </c>
-      <c r="G484" s="23" t="s">
-        <v>207</v>
       </c>
       <c r="H484" s="5"/>
       <c r="I484" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K484" s="4"/>
       <c r="L484" s="8"/>
@@ -9800,10 +9852,10 @@
         <v>4</v>
       </c>
       <c r="F485" s="23" t="s">
+        <v>294</v>
+      </c>
+      <c r="G485" s="23" t="s">
         <v>295</v>
-      </c>
-      <c r="G485" s="23" t="s">
-        <v>296</v>
       </c>
       <c r="K485" s="4"/>
       <c r="L485" s="8"/>
@@ -9813,10 +9865,10 @@
         <v>5</v>
       </c>
       <c r="F486" s="23" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G486" s="23" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K486" s="8"/>
       <c r="L486" s="8"/>
@@ -9827,19 +9879,19 @@
     </row>
     <row r="488" spans="1:12" ht="45">
       <c r="A488" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B488" s="18" t="s">
         <v>36</v>
       </c>
       <c r="D488" s="23" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F488" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I488" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K488" s="8"/>
       <c r="L488" s="8"/>
@@ -9864,10 +9916,10 @@
         <v>2</v>
       </c>
       <c r="F490" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="G490" s="23" t="s">
         <v>204</v>
-      </c>
-      <c r="G490" s="23" t="s">
-        <v>205</v>
       </c>
       <c r="H490" s="5"/>
       <c r="I490" s="5"/>
@@ -9879,14 +9931,14 @@
         <v>3</v>
       </c>
       <c r="F491" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="G491" s="23" t="s">
         <v>206</v>
-      </c>
-      <c r="G491" s="23" t="s">
-        <v>207</v>
       </c>
       <c r="H491" s="5"/>
       <c r="I491" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K491" s="8"/>
       <c r="L491" s="8"/>
@@ -9896,10 +9948,10 @@
         <v>4</v>
       </c>
       <c r="F492" s="23" t="s">
+        <v>297</v>
+      </c>
+      <c r="G492" s="23" t="s">
         <v>298</v>
-      </c>
-      <c r="G492" s="23" t="s">
-        <v>299</v>
       </c>
       <c r="K492" s="8"/>
       <c r="L492" s="8"/>
@@ -9909,10 +9961,10 @@
         <v>5</v>
       </c>
       <c r="F493" s="23" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G493" s="23" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K493" s="8"/>
       <c r="L493" s="8"/>
@@ -9923,19 +9975,19 @@
     </row>
     <row r="495" spans="1:12" ht="45">
       <c r="A495" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B495" s="18" t="s">
         <v>36</v>
       </c>
       <c r="D495" s="23" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F495" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I495" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K495" s="8"/>
       <c r="L495" s="8"/>
@@ -9960,10 +10012,10 @@
         <v>2</v>
       </c>
       <c r="F497" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="G497" s="23" t="s">
         <v>204</v>
-      </c>
-      <c r="G497" s="23" t="s">
-        <v>205</v>
       </c>
       <c r="H497" s="5"/>
       <c r="I497" s="5"/>
@@ -9975,10 +10027,10 @@
         <v>3</v>
       </c>
       <c r="F498" s="22" t="s">
+        <v>308</v>
+      </c>
+      <c r="G498" s="23" t="s">
         <v>309</v>
-      </c>
-      <c r="G498" s="23" t="s">
-        <v>310</v>
       </c>
       <c r="K498" s="8"/>
       <c r="L498" s="8"/>
@@ -9988,10 +10040,10 @@
         <v>4</v>
       </c>
       <c r="F499" s="23" t="s">
+        <v>302</v>
+      </c>
+      <c r="G499" s="23" t="s">
         <v>303</v>
-      </c>
-      <c r="G499" s="23" t="s">
-        <v>304</v>
       </c>
       <c r="K499" s="8"/>
       <c r="L499" s="8"/>
@@ -10001,10 +10053,10 @@
         <v>5</v>
       </c>
       <c r="F500" s="23" t="s">
+        <v>304</v>
+      </c>
+      <c r="G500" s="23" t="s">
         <v>305</v>
-      </c>
-      <c r="G500" s="23" t="s">
-        <v>306</v>
       </c>
       <c r="K500" s="8"/>
       <c r="L500" s="8"/>
@@ -10014,10 +10066,10 @@
         <v>6</v>
       </c>
       <c r="F501" s="22" t="s">
+        <v>306</v>
+      </c>
+      <c r="G501" s="23" t="s">
         <v>307</v>
-      </c>
-      <c r="G501" s="23" t="s">
-        <v>308</v>
       </c>
       <c r="K501" s="8"/>
       <c r="L501" s="8"/>
@@ -10028,19 +10080,19 @@
     </row>
     <row r="503" spans="1:12" ht="120">
       <c r="A503" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B503" s="18" t="s">
         <v>36</v>
       </c>
       <c r="D503" s="23" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F503" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I503" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K503" s="8"/>
       <c r="L503" s="8"/>
@@ -10065,10 +10117,10 @@
         <v>2</v>
       </c>
       <c r="F505" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="G505" s="23" t="s">
         <v>204</v>
-      </c>
-      <c r="G505" s="23" t="s">
-        <v>205</v>
       </c>
       <c r="H505" s="5"/>
       <c r="I505" s="5"/>
@@ -10080,10 +10132,10 @@
         <v>3</v>
       </c>
       <c r="F506" s="23" t="s">
+        <v>311</v>
+      </c>
+      <c r="G506" s="23" t="s">
         <v>312</v>
-      </c>
-      <c r="G506" s="23" t="s">
-        <v>313</v>
       </c>
       <c r="K506" s="8"/>
       <c r="L506" s="8"/>
@@ -10093,10 +10145,10 @@
         <v>4</v>
       </c>
       <c r="F507" s="23" t="s">
+        <v>313</v>
+      </c>
+      <c r="G507" s="23" t="s">
         <v>314</v>
-      </c>
-      <c r="G507" s="23" t="s">
-        <v>315</v>
       </c>
       <c r="K507" s="8"/>
       <c r="L507" s="8"/>
@@ -10107,19 +10159,19 @@
     </row>
     <row r="509" spans="1:12" ht="45">
       <c r="A509" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B509" s="18" t="s">
         <v>36</v>
       </c>
       <c r="D509" s="23" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F509" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I509" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K509" s="8"/>
       <c r="L509" s="8"/>
@@ -10144,10 +10196,10 @@
         <v>2</v>
       </c>
       <c r="F511" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="G511" s="23" t="s">
         <v>204</v>
-      </c>
-      <c r="G511" s="23" t="s">
-        <v>205</v>
       </c>
       <c r="H511" s="5"/>
       <c r="I511" s="5"/>
@@ -10159,10 +10211,10 @@
         <v>3</v>
       </c>
       <c r="F512" s="22" t="s">
+        <v>308</v>
+      </c>
+      <c r="G512" s="23" t="s">
         <v>309</v>
-      </c>
-      <c r="G512" s="23" t="s">
-        <v>310</v>
       </c>
       <c r="K512" s="8"/>
       <c r="L512" s="8"/>
@@ -10172,13 +10224,13 @@
         <v>4</v>
       </c>
       <c r="F513" s="23" t="s">
+        <v>304</v>
+      </c>
+      <c r="G513" s="23" t="s">
         <v>305</v>
       </c>
-      <c r="G513" s="23" t="s">
-        <v>306</v>
-      </c>
       <c r="I513" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="K513" s="8"/>
       <c r="L513" s="8"/>
@@ -10188,10 +10240,10 @@
         <v>5</v>
       </c>
       <c r="F514" s="23" t="s">
+        <v>318</v>
+      </c>
+      <c r="G514" s="23" t="s">
         <v>319</v>
-      </c>
-      <c r="G514" s="23" t="s">
-        <v>320</v>
       </c>
       <c r="K514" s="8"/>
       <c r="L514" s="8"/>
@@ -10201,10 +10253,10 @@
         <v>6</v>
       </c>
       <c r="F515" s="22" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G515" s="23" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K515" s="8"/>
       <c r="L515" s="8"/>
@@ -10215,19 +10267,19 @@
     </row>
     <row r="517" spans="1:12" ht="45">
       <c r="A517" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B517" s="18" t="s">
         <v>36</v>
       </c>
       <c r="D517" s="23" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F517" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I517" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K517" s="8"/>
       <c r="L517" s="8"/>
@@ -10252,10 +10304,10 @@
         <v>2</v>
       </c>
       <c r="F519" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="G519" s="23" t="s">
         <v>204</v>
-      </c>
-      <c r="G519" s="23" t="s">
-        <v>205</v>
       </c>
       <c r="H519" s="5"/>
       <c r="I519" s="5"/>
@@ -10267,10 +10319,10 @@
         <v>3</v>
       </c>
       <c r="F520" s="22" t="s">
+        <v>308</v>
+      </c>
+      <c r="G520" s="23" t="s">
         <v>309</v>
-      </c>
-      <c r="G520" s="23" t="s">
-        <v>310</v>
       </c>
       <c r="K520" s="8"/>
       <c r="L520" s="8"/>
@@ -10280,13 +10332,13 @@
         <v>4</v>
       </c>
       <c r="F521" s="23" t="s">
+        <v>304</v>
+      </c>
+      <c r="G521" s="23" t="s">
         <v>305</v>
       </c>
-      <c r="G521" s="23" t="s">
-        <v>306</v>
-      </c>
       <c r="I521" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="K521" s="8"/>
       <c r="L521" s="8"/>
@@ -10296,10 +10348,10 @@
         <v>6</v>
       </c>
       <c r="F522" s="23" t="s">
+        <v>322</v>
+      </c>
+      <c r="G522" s="23" t="s">
         <v>323</v>
-      </c>
-      <c r="G522" s="23" t="s">
-        <v>324</v>
       </c>
       <c r="K522" s="8"/>
       <c r="L522" s="8"/>
@@ -10309,10 +10361,10 @@
         <v>7</v>
       </c>
       <c r="F523" s="23" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G523" s="23" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="K523" s="8"/>
       <c r="L523" s="8"/>
@@ -10322,29 +10374,29 @@
         <v>8</v>
       </c>
       <c r="F524" s="23" t="s">
+        <v>325</v>
+      </c>
+      <c r="G524" s="23" t="s">
         <v>326</v>
-      </c>
-      <c r="G524" s="23" t="s">
-        <v>327</v>
       </c>
       <c r="K524" s="8"/>
       <c r="L524" s="8"/>
     </row>
     <row r="525" spans="1:12" ht="45">
       <c r="A525" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B525" s="18" t="s">
         <v>36</v>
       </c>
       <c r="D525" s="23" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F525" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I525" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K525" s="8"/>
       <c r="L525" s="8"/>
@@ -10369,10 +10421,10 @@
         <v>2</v>
       </c>
       <c r="F527" s="23" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G527" s="23" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H527" s="5"/>
       <c r="I527" s="5"/>
@@ -10384,13 +10436,13 @@
         <v>3</v>
       </c>
       <c r="F528" s="23" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G528" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I528" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K528" s="8"/>
       <c r="L528" s="8"/>
@@ -10400,10 +10452,10 @@
         <v>4</v>
       </c>
       <c r="F529" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="G529" s="6" t="s">
         <v>337</v>
-      </c>
-      <c r="G529" s="6" t="s">
-        <v>338</v>
       </c>
       <c r="K529" s="8"/>
       <c r="L529" s="8"/>
@@ -10413,10 +10465,10 @@
         <v>5</v>
       </c>
       <c r="F530" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G530" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="K530" s="8"/>
       <c r="L530" s="8"/>
@@ -10427,19 +10479,19 @@
     </row>
     <row r="532" spans="1:12" ht="45">
       <c r="A532" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B532" s="18" t="s">
         <v>36</v>
       </c>
       <c r="D532" s="23" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F532" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I532" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K532" s="8"/>
       <c r="L532" s="8"/>
@@ -10462,10 +10514,10 @@
         <v>2</v>
       </c>
       <c r="F534" s="23" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G534" s="23" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K534" s="8"/>
       <c r="L534" s="8"/>
@@ -10475,10 +10527,10 @@
         <v>3</v>
       </c>
       <c r="F535" s="23" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G535" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K535" s="8"/>
       <c r="L535" s="8"/>
@@ -10488,10 +10540,10 @@
         <v>4</v>
       </c>
       <c r="F536" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G536" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K536" s="8"/>
       <c r="L536" s="8"/>
@@ -10501,10 +10553,10 @@
         <v>5</v>
       </c>
       <c r="F537" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="G537" s="6" t="s">
         <v>344</v>
-      </c>
-      <c r="G537" s="6" t="s">
-        <v>345</v>
       </c>
       <c r="K537" s="8"/>
       <c r="L537" s="8"/>
@@ -10515,19 +10567,19 @@
     </row>
     <row r="539" spans="1:12" ht="60">
       <c r="A539" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B539" s="18" t="s">
         <v>36</v>
       </c>
       <c r="D539" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F539" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I539" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K539" s="8"/>
       <c r="L539" s="8"/>
@@ -10550,10 +10602,10 @@
         <v>2</v>
       </c>
       <c r="F541" s="23" t="s">
+        <v>347</v>
+      </c>
+      <c r="G541" s="6" t="s">
         <v>348</v>
-      </c>
-      <c r="G541" s="6" t="s">
-        <v>349</v>
       </c>
       <c r="K541" s="8"/>
       <c r="L541" s="8"/>
@@ -10563,13 +10615,13 @@
         <v>3</v>
       </c>
       <c r="F542" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="G542" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="G542" s="6" t="s">
+      <c r="I542" s="6" t="s">
         <v>351</v>
-      </c>
-      <c r="I542" s="6" t="s">
-        <v>352</v>
       </c>
       <c r="K542" s="8"/>
       <c r="L542" s="8"/>
@@ -10579,10 +10631,10 @@
         <v>4</v>
       </c>
       <c r="F543" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G543" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="K543" s="8"/>
       <c r="L543" s="8"/>
@@ -10593,19 +10645,19 @@
     </row>
     <row r="545" spans="1:12" ht="60">
       <c r="A545" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B545" s="18" t="s">
         <v>36</v>
       </c>
       <c r="D545" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F545" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I545" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K545" s="8"/>
       <c r="L545" s="8"/>
@@ -10628,10 +10680,10 @@
         <v>2</v>
       </c>
       <c r="F547" s="23" t="s">
+        <v>347</v>
+      </c>
+      <c r="G547" s="6" t="s">
         <v>348</v>
-      </c>
-      <c r="G547" s="6" t="s">
-        <v>349</v>
       </c>
       <c r="K547" s="8"/>
       <c r="L547" s="8"/>
@@ -10641,13 +10693,13 @@
         <v>3</v>
       </c>
       <c r="F548" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="G548" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="I548" s="6" t="s">
         <v>356</v>
-      </c>
-      <c r="G548" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="I548" s="6" t="s">
-        <v>357</v>
       </c>
       <c r="K548" s="8"/>
       <c r="L548" s="8"/>
@@ -10657,10 +10709,10 @@
         <v>4</v>
       </c>
       <c r="F549" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G549" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="K549" s="8"/>
       <c r="L549" s="8"/>
@@ -10671,19 +10723,19 @@
     </row>
     <row r="551" spans="1:12" ht="60">
       <c r="A551" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B551" s="18" t="s">
         <v>36</v>
       </c>
       <c r="D551" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F551" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I551" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K551" s="8"/>
       <c r="L551" s="8"/>
@@ -10706,10 +10758,10 @@
         <v>2</v>
       </c>
       <c r="F553" s="23" t="s">
+        <v>347</v>
+      </c>
+      <c r="G553" s="6" t="s">
         <v>348</v>
-      </c>
-      <c r="G553" s="6" t="s">
-        <v>349</v>
       </c>
       <c r="K553" s="8"/>
       <c r="L553" s="8"/>
@@ -10719,13 +10771,13 @@
         <v>3</v>
       </c>
       <c r="F554" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="G554" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="I554" s="6" t="s">
         <v>360</v>
-      </c>
-      <c r="G554" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="I554" s="6" t="s">
-        <v>361</v>
       </c>
       <c r="K554" s="8"/>
       <c r="L554" s="8"/>
@@ -10735,10 +10787,10 @@
         <v>4</v>
       </c>
       <c r="F555" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G555" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="K555" s="8"/>
       <c r="L555" s="8"/>
@@ -10749,19 +10801,19 @@
     </row>
     <row r="557" spans="1:12" ht="60">
       <c r="A557" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B557" s="18" t="s">
         <v>36</v>
       </c>
       <c r="D557" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F557" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I557" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K557" s="8"/>
       <c r="L557" s="8"/>
@@ -10784,10 +10836,10 @@
         <v>2</v>
       </c>
       <c r="F559" s="23" t="s">
+        <v>347</v>
+      </c>
+      <c r="G559" s="6" t="s">
         <v>348</v>
-      </c>
-      <c r="G559" s="6" t="s">
-        <v>349</v>
       </c>
       <c r="K559" s="8"/>
       <c r="L559" s="8"/>
@@ -10797,13 +10849,13 @@
         <v>3</v>
       </c>
       <c r="F560" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="G560" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="I560" s="6" t="s">
         <v>364</v>
-      </c>
-      <c r="G560" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="I560" s="6" t="s">
-        <v>365</v>
       </c>
       <c r="K560" s="8"/>
       <c r="L560" s="8"/>
@@ -10813,10 +10865,10 @@
         <v>4</v>
       </c>
       <c r="F561" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G561" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="K561" s="8"/>
       <c r="L561" s="8"/>
@@ -10827,19 +10879,19 @@
     </row>
     <row r="563" spans="1:12" ht="60">
       <c r="A563" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B563" s="18" t="s">
         <v>36</v>
       </c>
       <c r="D563" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F563" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I563" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K563" s="8"/>
       <c r="L563" s="8"/>
@@ -10862,10 +10914,10 @@
         <v>2</v>
       </c>
       <c r="F565" s="23" t="s">
+        <v>366</v>
+      </c>
+      <c r="G565" s="6" t="s">
         <v>367</v>
-      </c>
-      <c r="G565" s="6" t="s">
-        <v>368</v>
       </c>
       <c r="K565" s="8"/>
       <c r="L565" s="8"/>
@@ -10875,13 +10927,13 @@
         <v>3</v>
       </c>
       <c r="F566" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="G566" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="I566" s="6" t="s">
         <v>373</v>
-      </c>
-      <c r="G566" s="6" t="s">
-        <v>369</v>
-      </c>
-      <c r="I566" s="6" t="s">
-        <v>374</v>
       </c>
       <c r="K566" s="8"/>
       <c r="L566" s="8"/>
@@ -10891,10 +10943,10 @@
         <v>4</v>
       </c>
       <c r="F567" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="G567" s="6" t="s">
         <v>370</v>
-      </c>
-      <c r="G567" s="6" t="s">
-        <v>371</v>
       </c>
       <c r="K567" s="8"/>
       <c r="L567" s="8"/>
@@ -10905,19 +10957,19 @@
     </row>
     <row r="569" spans="1:12" ht="45">
       <c r="A569" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B569" s="18" t="s">
         <v>36</v>
       </c>
       <c r="D569" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F569" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I569" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K569" s="8"/>
       <c r="L569" s="8"/>
@@ -10940,10 +10992,10 @@
         <v>2</v>
       </c>
       <c r="F571" s="23" t="s">
+        <v>375</v>
+      </c>
+      <c r="G571" s="6" t="s">
         <v>376</v>
-      </c>
-      <c r="G571" s="6" t="s">
-        <v>377</v>
       </c>
       <c r="K571" s="8"/>
       <c r="L571" s="8"/>
@@ -10953,10 +11005,10 @@
         <v>3</v>
       </c>
       <c r="F572" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="G572" s="6" t="s">
         <v>378</v>
-      </c>
-      <c r="G572" s="6" t="s">
-        <v>379</v>
       </c>
       <c r="K572" s="8"/>
       <c r="L572" s="8"/>
@@ -10966,10 +11018,10 @@
         <v>4</v>
       </c>
       <c r="F573" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G573" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="K573" s="8"/>
       <c r="L573" s="8"/>
@@ -10979,10 +11031,10 @@
         <v>5</v>
       </c>
       <c r="F574" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G574" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="K574" s="8"/>
       <c r="L574" s="8"/>
@@ -10993,19 +11045,19 @@
     </row>
     <row r="576" spans="1:12" ht="45">
       <c r="A576" s="6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B576" s="18" t="s">
         <v>36</v>
       </c>
       <c r="D576" s="6" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F576" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I576" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K576" s="8"/>
       <c r="L576" s="8"/>
@@ -11028,10 +11080,10 @@
         <v>2</v>
       </c>
       <c r="F578" s="23" t="s">
+        <v>385</v>
+      </c>
+      <c r="G578" s="6" t="s">
         <v>386</v>
-      </c>
-      <c r="G578" s="6" t="s">
-        <v>387</v>
       </c>
       <c r="K578" s="8"/>
       <c r="L578" s="8"/>
@@ -11041,10 +11093,10 @@
         <v>3</v>
       </c>
       <c r="F579" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="G579" s="6" t="s">
         <v>388</v>
-      </c>
-      <c r="G579" s="6" t="s">
-        <v>389</v>
       </c>
       <c r="K579" s="8"/>
       <c r="L579" s="8"/>
@@ -11054,13 +11106,13 @@
         <v>4</v>
       </c>
       <c r="F580" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="G580" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="G580" s="6" t="s">
-        <v>391</v>
-      </c>
       <c r="I580" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="K580" s="8"/>
       <c r="L580" s="8"/>
@@ -11070,10 +11122,10 @@
         <v>5</v>
       </c>
       <c r="F581" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="G581" s="6" t="s">
         <v>392</v>
-      </c>
-      <c r="G581" s="6" t="s">
-        <v>393</v>
       </c>
       <c r="K581" s="8"/>
       <c r="L581" s="8"/>
@@ -11084,19 +11136,19 @@
     </row>
     <row r="583" spans="1:12" ht="45">
       <c r="A583" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B583" s="18" t="s">
         <v>36</v>
       </c>
       <c r="D583" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F583" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I583" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K583" s="8"/>
       <c r="L583" s="8"/>
@@ -11119,10 +11171,10 @@
         <v>2</v>
       </c>
       <c r="F585" s="23" t="s">
+        <v>385</v>
+      </c>
+      <c r="G585" s="6" t="s">
         <v>386</v>
-      </c>
-      <c r="G585" s="6" t="s">
-        <v>387</v>
       </c>
       <c r="K585" s="8"/>
       <c r="L585" s="8"/>
@@ -11132,10 +11184,10 @@
         <v>3</v>
       </c>
       <c r="F586" s="23" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G586" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="K586" s="8"/>
       <c r="L586" s="8"/>
@@ -11145,10 +11197,10 @@
         <v>4</v>
       </c>
       <c r="F587" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="G587" s="6" t="s">
         <v>396</v>
-      </c>
-      <c r="G587" s="6" t="s">
-        <v>397</v>
       </c>
       <c r="K587" s="8"/>
       <c r="L587" s="8"/>
@@ -11158,13 +11210,13 @@
         <v>5</v>
       </c>
       <c r="F588" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="G588" s="6" t="s">
         <v>398</v>
       </c>
-      <c r="G588" s="6" t="s">
-        <v>399</v>
-      </c>
       <c r="I588" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="K588" s="8"/>
       <c r="L588" s="8"/>
@@ -11174,13 +11226,13 @@
         <v>6</v>
       </c>
       <c r="F589" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="G589" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="G589" s="6" t="s">
-        <v>401</v>
-      </c>
       <c r="I589" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="K589" s="8"/>
       <c r="L589" s="8"/>
@@ -11190,10 +11242,10 @@
         <v>7</v>
       </c>
       <c r="F590" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="G590" s="6" t="s">
         <v>402</v>
-      </c>
-      <c r="G590" s="6" t="s">
-        <v>403</v>
       </c>
       <c r="K590" s="8"/>
       <c r="L590" s="8"/>
@@ -11204,19 +11256,19 @@
     </row>
     <row r="592" spans="1:12" ht="45">
       <c r="A592" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B592" s="18" t="s">
         <v>36</v>
       </c>
       <c r="D592" s="6" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F592" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I592" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K592" s="8"/>
       <c r="L592" s="8"/>
@@ -11239,10 +11291,10 @@
         <v>2</v>
       </c>
       <c r="F594" s="23" t="s">
+        <v>385</v>
+      </c>
+      <c r="G594" s="6" t="s">
         <v>386</v>
-      </c>
-      <c r="G594" s="6" t="s">
-        <v>387</v>
       </c>
       <c r="K594" s="8"/>
       <c r="L594" s="8"/>
@@ -11252,10 +11304,10 @@
         <v>3</v>
       </c>
       <c r="F595" s="23" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G595" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="K595" s="8"/>
       <c r="L595" s="8"/>
@@ -11265,10 +11317,10 @@
         <v>4</v>
       </c>
       <c r="F596" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="G596" s="6" t="s">
         <v>409</v>
-      </c>
-      <c r="G596" s="6" t="s">
-        <v>410</v>
       </c>
       <c r="K596" s="8"/>
       <c r="L596" s="8"/>
@@ -11278,10 +11330,10 @@
         <v>5</v>
       </c>
       <c r="F597" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="G597" s="6" t="s">
         <v>402</v>
-      </c>
-      <c r="G597" s="6" t="s">
-        <v>403</v>
       </c>
       <c r="K597" s="8"/>
       <c r="L597" s="8"/>
@@ -11292,19 +11344,19 @@
     </row>
     <row r="599" spans="1:12" ht="45">
       <c r="A599" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B599" s="18" t="s">
         <v>36</v>
       </c>
       <c r="D599" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F599" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I599" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K599" s="8"/>
       <c r="L599" s="8"/>
@@ -11327,10 +11379,10 @@
         <v>2</v>
       </c>
       <c r="F601" s="23" t="s">
+        <v>385</v>
+      </c>
+      <c r="G601" s="6" t="s">
         <v>386</v>
-      </c>
-      <c r="G601" s="6" t="s">
-        <v>387</v>
       </c>
       <c r="K601" s="8"/>
       <c r="L601" s="8"/>
@@ -11340,10 +11392,10 @@
         <v>3</v>
       </c>
       <c r="F602" s="23" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G602" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="K602" s="8"/>
       <c r="L602" s="8"/>
@@ -11353,13 +11405,13 @@
         <v>4</v>
       </c>
       <c r="F603" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="G603" s="6" t="s">
         <v>414</v>
       </c>
-      <c r="G603" s="6" t="s">
+      <c r="I603" s="6" t="s">
         <v>415</v>
-      </c>
-      <c r="I603" s="6" t="s">
-        <v>416</v>
       </c>
       <c r="K603" s="8"/>
       <c r="L603" s="8"/>
@@ -11369,10 +11421,10 @@
         <v>5</v>
       </c>
       <c r="F604" s="6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G604" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K604" s="8"/>
       <c r="L604" s="8"/>
@@ -11382,13 +11434,13 @@
         <v>6</v>
       </c>
       <c r="F605" s="6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G605" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="I605" s="6" t="s">
         <v>420</v>
-      </c>
-      <c r="I605" s="6" t="s">
-        <v>421</v>
       </c>
       <c r="K605" s="8"/>
       <c r="L605" s="8"/>
@@ -11398,10 +11450,10 @@
         <v>7</v>
       </c>
       <c r="F606" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="G606" s="6" t="s">
         <v>402</v>
-      </c>
-      <c r="G606" s="6" t="s">
-        <v>403</v>
       </c>
       <c r="K606" s="8"/>
       <c r="L606" s="8"/>
@@ -11412,19 +11464,19 @@
     </row>
     <row r="608" spans="1:12" ht="45">
       <c r="A608" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B608" s="18" t="s">
         <v>36</v>
       </c>
       <c r="D608" s="23" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F608" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I608" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K608" s="8"/>
       <c r="L608" s="8"/>
@@ -11447,10 +11499,10 @@
         <v>2</v>
       </c>
       <c r="F610" s="23" t="s">
+        <v>424</v>
+      </c>
+      <c r="G610" s="23" t="s">
         <v>425</v>
-      </c>
-      <c r="G610" s="23" t="s">
-        <v>426</v>
       </c>
       <c r="K610" s="8"/>
       <c r="L610" s="8"/>
@@ -11460,10 +11512,10 @@
         <v>3</v>
       </c>
       <c r="F611" s="23" t="s">
+        <v>426</v>
+      </c>
+      <c r="G611" s="23" t="s">
         <v>427</v>
-      </c>
-      <c r="G611" s="23" t="s">
-        <v>428</v>
       </c>
       <c r="K611" s="8"/>
       <c r="L611" s="8"/>
@@ -11473,10 +11525,10 @@
         <v>4</v>
       </c>
       <c r="F612" s="23" t="s">
+        <v>428</v>
+      </c>
+      <c r="G612" s="23" t="s">
         <v>429</v>
-      </c>
-      <c r="G612" s="23" t="s">
-        <v>430</v>
       </c>
       <c r="K612" s="8"/>
       <c r="L612" s="8"/>
@@ -11486,13 +11538,13 @@
         <v>5</v>
       </c>
       <c r="F613" s="23" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G613" s="23" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I613" s="6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="K613" s="8"/>
       <c r="L613" s="8"/>
@@ -11502,10 +11554,10 @@
         <v>6</v>
       </c>
       <c r="F614" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="G614" s="23" t="s">
         <v>220</v>
-      </c>
-      <c r="G614" s="23" t="s">
-        <v>221</v>
       </c>
       <c r="K614" s="8"/>
       <c r="L614" s="8"/>
@@ -11515,7 +11567,7 @@
         <v>7</v>
       </c>
       <c r="F615" s="22" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G615" s="22"/>
       <c r="K615" s="8"/>
@@ -11527,19 +11579,19 @@
     </row>
     <row r="617" spans="1:12" ht="75">
       <c r="A617" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B617" s="18" t="s">
         <v>36</v>
       </c>
       <c r="D617" s="23" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F617" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I617" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K617" s="8"/>
       <c r="L617" s="8"/>
@@ -11562,10 +11614,10 @@
         <v>2</v>
       </c>
       <c r="F619" s="23" t="s">
+        <v>424</v>
+      </c>
+      <c r="G619" s="23" t="s">
         <v>425</v>
-      </c>
-      <c r="G619" s="23" t="s">
-        <v>426</v>
       </c>
       <c r="K619" s="8"/>
       <c r="L619" s="8"/>
@@ -11575,10 +11627,10 @@
         <v>4</v>
       </c>
       <c r="F620" s="23" t="s">
+        <v>426</v>
+      </c>
+      <c r="G620" s="23" t="s">
         <v>427</v>
-      </c>
-      <c r="G620" s="23" t="s">
-        <v>428</v>
       </c>
       <c r="K620" s="8"/>
       <c r="L620" s="8"/>
@@ -11588,10 +11640,10 @@
         <v>5</v>
       </c>
       <c r="F621" s="23" t="s">
+        <v>428</v>
+      </c>
+      <c r="G621" s="23" t="s">
         <v>429</v>
-      </c>
-      <c r="G621" s="23" t="s">
-        <v>430</v>
       </c>
       <c r="K621" s="8"/>
       <c r="L621" s="8"/>
@@ -11601,13 +11653,13 @@
         <v>6</v>
       </c>
       <c r="F622" s="23" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G622" s="23" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I622" s="6" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="K622" s="8"/>
       <c r="L622" s="8"/>
@@ -11617,10 +11669,10 @@
         <v>7</v>
       </c>
       <c r="F623" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="G623" s="23" t="s">
         <v>220</v>
-      </c>
-      <c r="G623" s="23" t="s">
-        <v>221</v>
       </c>
       <c r="K623" s="8"/>
       <c r="L623" s="8"/>
@@ -11630,7 +11682,7 @@
         <v>8</v>
       </c>
       <c r="F624" s="22" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G624" s="22"/>
       <c r="K624" s="8"/>
@@ -11642,19 +11694,19 @@
     </row>
     <row r="626" spans="1:12" ht="75">
       <c r="A626" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B626" s="18" t="s">
         <v>36</v>
       </c>
       <c r="D626" s="23" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F626" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I626" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K626" s="8"/>
       <c r="L626" s="8"/>
@@ -11677,10 +11729,10 @@
         <v>2</v>
       </c>
       <c r="F628" s="23" t="s">
+        <v>424</v>
+      </c>
+      <c r="G628" s="23" t="s">
         <v>425</v>
-      </c>
-      <c r="G628" s="23" t="s">
-        <v>426</v>
       </c>
       <c r="K628" s="8"/>
       <c r="L628" s="8"/>
@@ -11690,10 +11742,10 @@
         <v>4</v>
       </c>
       <c r="F629" s="23" t="s">
+        <v>426</v>
+      </c>
+      <c r="G629" s="23" t="s">
         <v>427</v>
-      </c>
-      <c r="G629" s="23" t="s">
-        <v>428</v>
       </c>
       <c r="K629" s="8"/>
       <c r="L629" s="8"/>
@@ -11703,10 +11755,10 @@
         <v>5</v>
       </c>
       <c r="F630" s="23" t="s">
+        <v>428</v>
+      </c>
+      <c r="G630" s="23" t="s">
         <v>429</v>
-      </c>
-      <c r="G630" s="23" t="s">
-        <v>430</v>
       </c>
       <c r="K630" s="8"/>
       <c r="L630" s="8"/>
@@ -11716,13 +11768,13 @@
         <v>6</v>
       </c>
       <c r="F631" s="23" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G631" s="23" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I631" s="6" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="K631" s="8"/>
       <c r="L631" s="8"/>
@@ -11732,10 +11784,10 @@
         <v>7</v>
       </c>
       <c r="F632" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="G632" s="23" t="s">
         <v>220</v>
-      </c>
-      <c r="G632" s="23" t="s">
-        <v>221</v>
       </c>
       <c r="K632" s="8"/>
       <c r="L632" s="8"/>
@@ -11745,7 +11797,7 @@
         <v>8</v>
       </c>
       <c r="F633" s="22" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G633" s="22"/>
       <c r="K633" s="8"/>
@@ -11757,19 +11809,19 @@
     </row>
     <row r="635" spans="1:12" ht="75">
       <c r="A635" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B635" s="18" t="s">
         <v>36</v>
       </c>
       <c r="D635" s="23" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F635" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I635" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K635" s="8"/>
       <c r="L635" s="8"/>
@@ -11792,10 +11844,10 @@
         <v>2</v>
       </c>
       <c r="F637" s="23" t="s">
+        <v>424</v>
+      </c>
+      <c r="G637" s="23" t="s">
         <v>425</v>
-      </c>
-      <c r="G637" s="23" t="s">
-        <v>426</v>
       </c>
       <c r="K637" s="8"/>
       <c r="L637" s="8"/>
@@ -11805,10 +11857,10 @@
         <v>4</v>
       </c>
       <c r="F638" s="23" t="s">
+        <v>426</v>
+      </c>
+      <c r="G638" s="23" t="s">
         <v>427</v>
-      </c>
-      <c r="G638" s="23" t="s">
-        <v>428</v>
       </c>
       <c r="K638" s="8"/>
       <c r="L638" s="8"/>
@@ -11818,10 +11870,10 @@
         <v>5</v>
       </c>
       <c r="F639" s="23" t="s">
+        <v>428</v>
+      </c>
+      <c r="G639" s="23" t="s">
         <v>429</v>
-      </c>
-      <c r="G639" s="23" t="s">
-        <v>430</v>
       </c>
       <c r="K639" s="8"/>
       <c r="L639" s="8"/>
@@ -11831,13 +11883,13 @@
         <v>6</v>
       </c>
       <c r="F640" s="23" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G640" s="23" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I640" s="6" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="K640" s="8"/>
       <c r="L640" s="8"/>
@@ -11847,10 +11899,10 @@
         <v>7</v>
       </c>
       <c r="F641" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="G641" s="23" t="s">
         <v>220</v>
-      </c>
-      <c r="G641" s="23" t="s">
-        <v>221</v>
       </c>
       <c r="K641" s="8"/>
       <c r="L641" s="8"/>
@@ -11860,7 +11912,7 @@
         <v>8</v>
       </c>
       <c r="F642" s="22" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G642" s="22"/>
       <c r="K642" s="8"/>
@@ -11872,19 +11924,19 @@
     </row>
     <row r="644" spans="1:12" ht="60">
       <c r="A644" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B644" s="18" t="s">
         <v>36</v>
       </c>
       <c r="D644" s="23" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F644" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I644" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K644" s="8"/>
       <c r="L644" s="8"/>
@@ -11907,10 +11959,10 @@
         <v>2</v>
       </c>
       <c r="F646" s="23" t="s">
+        <v>424</v>
+      </c>
+      <c r="G646" s="23" t="s">
         <v>425</v>
-      </c>
-      <c r="G646" s="23" t="s">
-        <v>426</v>
       </c>
       <c r="K646" s="8"/>
       <c r="L646" s="8"/>
@@ -11920,10 +11972,10 @@
         <v>4</v>
       </c>
       <c r="F647" s="23" t="s">
+        <v>426</v>
+      </c>
+      <c r="G647" s="23" t="s">
         <v>427</v>
-      </c>
-      <c r="G647" s="23" t="s">
-        <v>428</v>
       </c>
       <c r="K647" s="8"/>
       <c r="L647" s="8"/>
@@ -11933,10 +11985,10 @@
         <v>5</v>
       </c>
       <c r="F648" s="23" t="s">
+        <v>440</v>
+      </c>
+      <c r="G648" s="23" t="s">
         <v>441</v>
-      </c>
-      <c r="G648" s="23" t="s">
-        <v>442</v>
       </c>
       <c r="K648" s="8"/>
       <c r="L648" s="8"/>
@@ -11946,13 +11998,13 @@
         <v>6</v>
       </c>
       <c r="F649" s="23" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="G649" s="23" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I649" s="6" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="K649" s="8"/>
       <c r="L649" s="8"/>
@@ -11962,10 +12014,10 @@
         <v>7</v>
       </c>
       <c r="F650" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="G650" s="23" t="s">
         <v>220</v>
-      </c>
-      <c r="G650" s="23" t="s">
-        <v>221</v>
       </c>
       <c r="K650" s="8"/>
       <c r="L650" s="8"/>
@@ -11975,7 +12027,7 @@
         <v>8</v>
       </c>
       <c r="F651" s="22" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G651" s="22"/>
       <c r="K651" s="8"/>
@@ -11987,19 +12039,19 @@
     </row>
     <row r="653" spans="1:12" ht="60">
       <c r="A653" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B653" s="18" t="s">
         <v>36</v>
       </c>
       <c r="D653" s="23" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F653" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I653" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K653" s="8"/>
       <c r="L653" s="8"/>
@@ -12022,10 +12074,10 @@
         <v>2</v>
       </c>
       <c r="F655" s="23" t="s">
+        <v>424</v>
+      </c>
+      <c r="G655" s="23" t="s">
         <v>425</v>
-      </c>
-      <c r="G655" s="23" t="s">
-        <v>426</v>
       </c>
       <c r="K655" s="8"/>
       <c r="L655" s="8"/>
@@ -12035,10 +12087,10 @@
         <v>3</v>
       </c>
       <c r="F656" s="22" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G656" s="23" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="K656" s="8"/>
       <c r="L656" s="8"/>
@@ -12048,13 +12100,13 @@
         <v>4</v>
       </c>
       <c r="F657" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="G657" s="23" t="s">
         <v>240</v>
       </c>
-      <c r="G657" s="23" t="s">
-        <v>241</v>
-      </c>
       <c r="I657" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="K657" s="8"/>
       <c r="L657" s="8"/>
@@ -12064,10 +12116,10 @@
         <v>5</v>
       </c>
       <c r="F658" s="22" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G658" s="23" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K658" s="8"/>
       <c r="L658" s="8"/>
@@ -12078,19 +12130,19 @@
     </row>
     <row r="660" spans="1:12" ht="45">
       <c r="A660" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B660" s="18" t="s">
         <v>36</v>
       </c>
       <c r="D660" s="23" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F660" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I660" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K660" s="8"/>
       <c r="L660" s="8"/>
@@ -12113,10 +12165,10 @@
         <v>2</v>
       </c>
       <c r="F662" s="23" t="s">
+        <v>424</v>
+      </c>
+      <c r="G662" s="23" t="s">
         <v>425</v>
-      </c>
-      <c r="G662" s="23" t="s">
-        <v>426</v>
       </c>
       <c r="K662" s="8"/>
       <c r="L662" s="8"/>
@@ -12126,10 +12178,10 @@
         <v>3</v>
       </c>
       <c r="F663" s="23" t="s">
+        <v>449</v>
+      </c>
+      <c r="G663" s="23" t="s">
         <v>450</v>
-      </c>
-      <c r="G663" s="23" t="s">
-        <v>451</v>
       </c>
       <c r="K663" s="8"/>
       <c r="L663" s="8"/>
@@ -12139,13 +12191,13 @@
         <v>4</v>
       </c>
       <c r="F664" s="23" t="s">
+        <v>451</v>
+      </c>
+      <c r="G664" s="23" t="s">
         <v>452</v>
       </c>
-      <c r="G664" s="23" t="s">
-        <v>453</v>
-      </c>
       <c r="I664" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="K664" s="8"/>
       <c r="L664" s="8"/>
@@ -12155,10 +12207,10 @@
         <v>5</v>
       </c>
       <c r="F665" s="22" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G665" s="23" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K665" s="8"/>
       <c r="L665" s="8"/>
@@ -12168,10 +12220,10 @@
         <v>6</v>
       </c>
       <c r="F666" s="22" t="s">
+        <v>247</v>
+      </c>
+      <c r="G666" s="23" t="s">
         <v>248</v>
-      </c>
-      <c r="G666" s="23" t="s">
-        <v>249</v>
       </c>
       <c r="K666" s="8"/>
       <c r="L666" s="8"/>
@@ -12181,10 +12233,10 @@
         <v>7</v>
       </c>
       <c r="F667" s="22" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G667" s="23" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K667" s="8"/>
       <c r="L667" s="8"/>
@@ -12194,10 +12246,10 @@
         <v>8</v>
       </c>
       <c r="F668" s="23" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G668" s="23" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="K668" s="8"/>
       <c r="L668" s="8"/>
@@ -12207,10 +12259,10 @@
         <v>9</v>
       </c>
       <c r="F669" s="23" t="s">
+        <v>455</v>
+      </c>
+      <c r="G669" s="23" t="s">
         <v>456</v>
-      </c>
-      <c r="G669" s="23" t="s">
-        <v>457</v>
       </c>
       <c r="K669" s="8"/>
       <c r="L669" s="8"/>
@@ -12220,10 +12272,10 @@
         <v>10</v>
       </c>
       <c r="F670" s="23" t="s">
+        <v>457</v>
+      </c>
+      <c r="G670" s="23" t="s">
         <v>458</v>
-      </c>
-      <c r="G670" s="23" t="s">
-        <v>459</v>
       </c>
       <c r="K670" s="8"/>
       <c r="L670" s="8"/>
@@ -12234,19 +12286,19 @@
     </row>
     <row r="672" spans="1:12" ht="45">
       <c r="A672" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B672" s="18" t="s">
         <v>36</v>
       </c>
       <c r="D672" s="23" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F672" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I672" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K672" s="8"/>
       <c r="L672" s="8"/>
@@ -12269,10 +12321,10 @@
         <v>2</v>
       </c>
       <c r="F674" s="23" t="s">
+        <v>468</v>
+      </c>
+      <c r="G674" s="23" t="s">
         <v>469</v>
-      </c>
-      <c r="G674" s="23" t="s">
-        <v>470</v>
       </c>
       <c r="K674" s="8"/>
       <c r="L674" s="8"/>
@@ -12282,13 +12334,13 @@
         <v>3</v>
       </c>
       <c r="F675" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="G675" s="6" t="s">
         <v>471</v>
       </c>
-      <c r="G675" s="6" t="s">
+      <c r="I675" s="6" t="s">
         <v>472</v>
-      </c>
-      <c r="I675" s="6" t="s">
-        <v>473</v>
       </c>
       <c r="K675" s="8"/>
       <c r="L675" s="8"/>
@@ -12298,13 +12350,13 @@
         <v>4</v>
       </c>
       <c r="F676" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="G676" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="I676" s="6" t="s">
         <v>475</v>
-      </c>
-      <c r="G676" s="6" t="s">
-        <v>477</v>
-      </c>
-      <c r="I676" s="6" t="s">
-        <v>476</v>
       </c>
       <c r="K676" s="8"/>
       <c r="L676" s="8"/>
@@ -12314,10 +12366,10 @@
         <v>5</v>
       </c>
       <c r="F677" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G677" s="6" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="K677" s="8"/>
       <c r="L677" s="8"/>
@@ -12327,13 +12379,13 @@
         <v>6</v>
       </c>
       <c r="F678" s="6" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G678" s="6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I678" s="6" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="K678" s="8"/>
       <c r="L678" s="8"/>
@@ -12343,10 +12395,10 @@
         <v>7</v>
       </c>
       <c r="F679" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G679" s="6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="K679" s="8"/>
       <c r="L679" s="8"/>
@@ -12357,19 +12409,19 @@
     </row>
     <row r="681" spans="1:12" ht="45">
       <c r="A681" s="6" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B681" s="18" t="s">
         <v>36</v>
       </c>
       <c r="D681" s="23" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F681" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I681" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K681" s="8"/>
       <c r="L681" s="8"/>
@@ -12392,10 +12444,10 @@
         <v>2</v>
       </c>
       <c r="F683" s="23" t="s">
+        <v>468</v>
+      </c>
+      <c r="G683" s="23" t="s">
         <v>469</v>
-      </c>
-      <c r="G683" s="23" t="s">
-        <v>470</v>
       </c>
       <c r="K683" s="8"/>
       <c r="L683" s="8"/>
@@ -12405,13 +12457,13 @@
         <v>3</v>
       </c>
       <c r="F684" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="G684" s="6" t="s">
         <v>471</v>
       </c>
-      <c r="G684" s="6" t="s">
+      <c r="I684" s="6" t="s">
         <v>472</v>
-      </c>
-      <c r="I684" s="6" t="s">
-        <v>473</v>
       </c>
       <c r="K684" s="8"/>
       <c r="L684" s="8"/>
@@ -12421,13 +12473,13 @@
         <v>4</v>
       </c>
       <c r="F685" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="G685" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="I685" s="6" t="s">
         <v>475</v>
-      </c>
-      <c r="G685" s="6" t="s">
-        <v>477</v>
-      </c>
-      <c r="I685" s="6" t="s">
-        <v>476</v>
       </c>
       <c r="K685" s="8"/>
       <c r="L685" s="8"/>
@@ -12437,10 +12489,10 @@
         <v>4</v>
       </c>
       <c r="F686" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G686" s="6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="K686" s="8"/>
       <c r="L686" s="8"/>
@@ -12450,10 +12502,10 @@
         <v>5</v>
       </c>
       <c r="F687" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="G687" s="6" t="s">
         <v>483</v>
-      </c>
-      <c r="G687" s="6" t="s">
-        <v>484</v>
       </c>
       <c r="K687" s="8"/>
       <c r="L687" s="8"/>
@@ -12463,10 +12515,10 @@
         <v>6</v>
       </c>
       <c r="F688" s="6" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G688" s="6" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="K688" s="8"/>
       <c r="L688" s="8"/>
@@ -12476,10 +12528,10 @@
         <v>7</v>
       </c>
       <c r="F689" s="6" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="G689" s="6" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="K689" s="8"/>
       <c r="L689" s="8"/>
@@ -12489,19 +12541,19 @@
     </row>
     <row r="691" spans="1:12" ht="45">
       <c r="A691" s="6" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B691" s="18" t="s">
         <v>36</v>
       </c>
       <c r="D691" s="23" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F691" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I691" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L691" s="8"/>
     </row>
@@ -12522,10 +12574,10 @@
         <v>2</v>
       </c>
       <c r="F693" s="23" t="s">
+        <v>490</v>
+      </c>
+      <c r="G693" s="23" t="s">
         <v>491</v>
-      </c>
-      <c r="G693" s="23" t="s">
-        <v>492</v>
       </c>
       <c r="L693" s="8"/>
     </row>
@@ -12534,10 +12586,10 @@
         <v>3</v>
       </c>
       <c r="F694" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="G694" s="6" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="L694" s="8"/>
     </row>
@@ -12546,13 +12598,13 @@
         <v>4</v>
       </c>
       <c r="F695" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G695" s="6" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="I695" s="6" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="L695" s="8"/>
     </row>
@@ -12561,10 +12613,10 @@
         <v>5</v>
       </c>
       <c r="F696" s="6" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G696" s="6" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="L696" s="8"/>
     </row>
@@ -12573,19 +12625,19 @@
     </row>
     <row r="698" spans="1:12" ht="45">
       <c r="A698" s="6" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B698" s="18" t="s">
         <v>36</v>
       </c>
       <c r="D698" s="23" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F698" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I698" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L698" s="8"/>
     </row>
@@ -12606,10 +12658,10 @@
         <v>2</v>
       </c>
       <c r="F700" s="23" t="s">
+        <v>490</v>
+      </c>
+      <c r="G700" s="23" t="s">
         <v>491</v>
-      </c>
-      <c r="G700" s="23" t="s">
-        <v>492</v>
       </c>
       <c r="L700" s="8"/>
     </row>
@@ -12618,13 +12670,13 @@
         <v>3</v>
       </c>
       <c r="F701" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="G701" s="6" t="s">
         <v>498</v>
       </c>
-      <c r="G701" s="6" t="s">
+      <c r="I701" s="6" t="s">
         <v>499</v>
-      </c>
-      <c r="I701" s="6" t="s">
-        <v>500</v>
       </c>
       <c r="L701" s="8"/>
     </row>
@@ -12633,13 +12685,13 @@
         <v>4</v>
       </c>
       <c r="F702" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="G702" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="I702" s="6" t="s">
         <v>501</v>
-      </c>
-      <c r="G702" s="6" t="s">
-        <v>499</v>
-      </c>
-      <c r="I702" s="6" t="s">
-        <v>502</v>
       </c>
       <c r="L702" s="8"/>
     </row>
@@ -12648,13 +12700,13 @@
         <v>5</v>
       </c>
       <c r="F703" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="G703" s="6" t="s">
         <v>503</v>
       </c>
-      <c r="G703" s="6" t="s">
+      <c r="I703" s="6" t="s">
         <v>504</v>
-      </c>
-      <c r="I703" s="6" t="s">
-        <v>505</v>
       </c>
       <c r="L703" s="8"/>
     </row>
@@ -12663,13 +12715,13 @@
         <v>6</v>
       </c>
       <c r="F704" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G704" s="6" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H704" s="6" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="L704" s="8"/>
     </row>
@@ -12678,10 +12730,10 @@
         <v>7</v>
       </c>
       <c r="F705" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="G705" s="6" t="s">
         <v>508</v>
-      </c>
-      <c r="G705" s="6" t="s">
-        <v>509</v>
       </c>
       <c r="L705" s="8"/>
     </row>
@@ -12690,19 +12742,19 @@
     </row>
     <row r="707" spans="1:12" ht="45">
       <c r="A707" s="6" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B707" s="18" t="s">
         <v>36</v>
       </c>
       <c r="D707" s="23" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="F707" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I707" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L707" s="8"/>
     </row>
@@ -12723,10 +12775,10 @@
         <v>2</v>
       </c>
       <c r="F709" s="23" t="s">
+        <v>490</v>
+      </c>
+      <c r="G709" s="23" t="s">
         <v>491</v>
-      </c>
-      <c r="G709" s="23" t="s">
-        <v>492</v>
       </c>
       <c r="L709" s="8"/>
     </row>
@@ -12735,13 +12787,13 @@
         <v>3</v>
       </c>
       <c r="F710" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="G710" s="6" t="s">
         <v>498</v>
       </c>
-      <c r="G710" s="6" t="s">
+      <c r="I710" s="6" t="s">
         <v>499</v>
-      </c>
-      <c r="I710" s="6" t="s">
-        <v>500</v>
       </c>
       <c r="L710" s="8"/>
     </row>
@@ -12750,13 +12802,13 @@
         <v>4</v>
       </c>
       <c r="F711" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="G711" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="I711" s="6" t="s">
         <v>501</v>
-      </c>
-      <c r="G711" s="6" t="s">
-        <v>499</v>
-      </c>
-      <c r="I711" s="6" t="s">
-        <v>502</v>
       </c>
       <c r="L711" s="8"/>
     </row>
@@ -12765,13 +12817,13 @@
         <v>5</v>
       </c>
       <c r="F712" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="G712" s="6" t="s">
         <v>503</v>
       </c>
-      <c r="G712" s="6" t="s">
+      <c r="I712" s="6" t="s">
         <v>504</v>
-      </c>
-      <c r="I712" s="6" t="s">
-        <v>505</v>
       </c>
       <c r="L712" s="8"/>
     </row>
@@ -12780,13 +12832,13 @@
         <v>6</v>
       </c>
       <c r="F713" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G713" s="6" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H713" s="6" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="L713" s="8"/>
     </row>
@@ -12795,10 +12847,10 @@
         <v>7</v>
       </c>
       <c r="F714" s="6" t="s">
+        <v>511</v>
+      </c>
+      <c r="G714" s="6" t="s">
         <v>512</v>
-      </c>
-      <c r="G714" s="6" t="s">
-        <v>513</v>
       </c>
       <c r="L714" s="8"/>
     </row>

--- a/Test Cases/Nithya/Test Case- Lab & General Billing - Reviewed.xlsx
+++ b/Test Cases/Nithya/Test Case- Lab & General Billing - Reviewed.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1678" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1747" uniqueCount="553">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -2399,6 +2399,139 @@
       </rPr>
       <t xml:space="preserve"> advance entry should be made</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Precondition:The Patient should be consulted and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>advance entry should be made</t>
+    </r>
+  </si>
+  <si>
+    <t>Search patient page should be opened.
+A table with patient details should be displayed</t>
+  </si>
+  <si>
+    <t>MED_LGB_TC_074</t>
+  </si>
+  <si>
+    <t>Verify Summary Information table under Billing Search</t>
+  </si>
+  <si>
+    <t>Navigate to Billing search tab</t>
+  </si>
+  <si>
+    <t>Billing serach page should be displayed</t>
+  </si>
+  <si>
+    <t>Summary Information table should contian:
+-Today's Bills
+-Op Bills
+-IP Bills
+-Credit Bills
+-Cash Bills
+-Complimentary Bills
+-Pending Request
+-Emergency Bills</t>
+  </si>
+  <si>
+    <t>MED_LGB_TC_075</t>
+  </si>
+  <si>
+    <t>Verify on clicking Billed status, user gets navigated to lab and general billing page</t>
+  </si>
+  <si>
+    <t>Precondition:The Patient should be consulted and Billed</t>
+  </si>
+  <si>
+    <t>#NH00000596 - Arjun</t>
+  </si>
+  <si>
+    <t>Verify page gets navigated to lab and General Billing page</t>
+  </si>
+  <si>
+    <t>lab and General Billing page should be displayed</t>
+  </si>
+  <si>
+    <t>patient should get listed</t>
+  </si>
+  <si>
+    <t>MED_LGB_TC_076</t>
+  </si>
+  <si>
+    <t>Verify Editing Todays Bills</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Search for a Billed  patient on entering data in fields upon clciking show option </t>
+  </si>
+  <si>
+    <t>Once patient is displayed under Todays Bills, click on Billed status</t>
+  </si>
+  <si>
+    <t>Once patient is displayed under Todays Bills, click on Edit option</t>
+  </si>
+  <si>
+    <t>Make changes and save it for verification</t>
+  </si>
+  <si>
+    <t>Edited fields should be saved</t>
+  </si>
+  <si>
+    <t>Precondition:The Patient should be consulted and Billed
+Navigate to Application Selector&gt;&gt;Select Lab and General Billing</t>
+  </si>
+  <si>
+    <t>MED_LGB_TC_077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Precondition:The Patient should be consulted and Billed
+</t>
+  </si>
+  <si>
+    <t>Click on Linked patients option and verify result</t>
+  </si>
+  <si>
+    <t>Verify Linked patients</t>
+  </si>
+  <si>
+    <t>Linked patients should be displayed</t>
+  </si>
+  <si>
+    <t>MED_LGB_TC_078</t>
+  </si>
+  <si>
+    <t>Verify data displayed in Summary Information table on selecting different dates from date picker</t>
+  </si>
+  <si>
+    <t>Navigate to dashboard tab</t>
+  </si>
+  <si>
+    <t>Dashboard page should be displayed</t>
+  </si>
+  <si>
+    <t>Summary Information table should contain:
+-Today's Bills
+-Op Bills
+-IP Bills
+-Credit Bills
+-Cash Bills
+-Complimentary Bills
+-Pending Request
+-Emergency Bills</t>
+  </si>
+  <si>
+    <t>Verify Summary Information table under dashboard of Todays Bill summary</t>
+  </si>
+  <si>
+    <t>http://mediwarecloud.com</t>
   </si>
 </sst>
 </file>
@@ -2487,7 +2620,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2509,6 +2642,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2550,7 +2695,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2630,15 +2775,25 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2954,11 +3109,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S734"/>
+  <dimension ref="A1:S744"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A432" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F433" sqref="F433"/>
+      <pane ySplit="1" topLeftCell="A739" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H722" sqref="H722"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3015,14 +3170,14 @@
       <c r="M1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="27" t="s">
+      <c r="O1" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="27"/>
-      <c r="R1" s="28" t="s">
+      <c r="P1" s="31"/>
+      <c r="R1" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="S1" s="28"/>
+      <c r="S1" s="32"/>
     </row>
     <row r="2" spans="1:19" s="9" customFormat="1" ht="33.75" customHeight="1">
       <c r="A2" s="15" t="s">
@@ -3057,7 +3212,7 @@
       </c>
       <c r="P2" s="11">
         <f>COUNTA(A:A)-1</f>
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="R2" s="12" t="s">
         <v>12</v>
@@ -3642,7 +3797,7 @@
       <c r="L41" s="8"/>
     </row>
     <row r="42" spans="1:12" ht="45">
-      <c r="A42" s="29" t="s">
+      <c r="A42" s="27" t="s">
         <v>22</v>
       </c>
       <c r="B42" s="18" t="s">
@@ -4334,7 +4489,7 @@
       <c r="L91" s="8"/>
     </row>
     <row r="92" spans="1:12" ht="45">
-      <c r="A92" s="6" t="s">
+      <c r="A92" s="28" t="s">
         <v>26</v>
       </c>
       <c r="B92" s="18" t="s">
@@ -4507,7 +4662,7 @@
       <c r="L104" s="8"/>
     </row>
     <row r="105" spans="1:12" ht="60">
-      <c r="A105" s="6" t="s">
+      <c r="A105" s="28" t="s">
         <v>27</v>
       </c>
       <c r="B105" s="18" t="s">
@@ -4705,7 +4860,7 @@
       <c r="L118" s="8"/>
     </row>
     <row r="119" spans="1:12" ht="60">
-      <c r="A119" s="6" t="s">
+      <c r="A119" s="28" t="s">
         <v>28</v>
       </c>
       <c r="B119" s="18" t="s">
@@ -4848,7 +5003,7 @@
         <v>10</v>
       </c>
       <c r="F128" s="6" t="s">
-        <v>105</v>
+        <v>59</v>
       </c>
       <c r="G128" s="6" t="s">
         <v>114</v>
@@ -4903,7 +5058,7 @@
       <c r="L132" s="8"/>
     </row>
     <row r="133" spans="1:12" ht="45">
-      <c r="A133" s="6" t="s">
+      <c r="A133" s="28" t="s">
         <v>29</v>
       </c>
       <c r="B133" s="18" t="s">
@@ -5046,7 +5201,7 @@
         <v>10</v>
       </c>
       <c r="F142" s="6" t="s">
-        <v>105</v>
+        <v>59</v>
       </c>
       <c r="G142" s="6" t="s">
         <v>114</v>
@@ -5085,7 +5240,7 @@
       <c r="L145" s="8"/>
     </row>
     <row r="146" spans="1:12" ht="45">
-      <c r="A146" s="6" t="s">
+      <c r="A146" s="28" t="s">
         <v>30</v>
       </c>
       <c r="B146" s="18" t="s">
@@ -5228,7 +5383,7 @@
         <v>10</v>
       </c>
       <c r="F155" s="6" t="s">
-        <v>105</v>
+        <v>59</v>
       </c>
       <c r="G155" s="6" t="s">
         <v>114</v>
@@ -5280,7 +5435,7 @@
       <c r="L159" s="8"/>
     </row>
     <row r="160" spans="1:12" ht="75">
-      <c r="A160" s="6" t="s">
+      <c r="A160" s="28" t="s">
         <v>31</v>
       </c>
       <c r="B160" s="18" t="s">
@@ -5491,7 +5646,7 @@
       <c r="L174" s="8"/>
     </row>
     <row r="175" spans="1:12" ht="60">
-      <c r="A175" s="6" t="s">
+      <c r="A175" s="28" t="s">
         <v>32</v>
       </c>
       <c r="B175" s="18" t="s">
@@ -5686,7 +5841,7 @@
       <c r="L188" s="8"/>
     </row>
     <row r="189" spans="1:12" ht="75">
-      <c r="A189" s="6" t="s">
+      <c r="A189" s="28" t="s">
         <v>33</v>
       </c>
       <c r="B189" s="18" t="s">
@@ -5880,13 +6035,13 @@
       <c r="L201" s="8"/>
     </row>
     <row r="202" spans="1:12">
-      <c r="A202" s="6" t="s">
-        <v>34</v>
-      </c>
       <c r="K202" s="4"/>
       <c r="L202" s="8"/>
     </row>
     <row r="203" spans="1:12" ht="90">
+      <c r="A203" s="28" t="s">
+        <v>34</v>
+      </c>
       <c r="B203" s="18" t="s">
         <v>36</v>
       </c>
@@ -6027,7 +6182,7 @@
         <v>10</v>
       </c>
       <c r="F212" s="6" t="s">
-        <v>105</v>
+        <v>59</v>
       </c>
       <c r="G212" s="6" t="s">
         <v>114</v>
@@ -6098,7 +6253,7 @@
       <c r="L217" s="8"/>
     </row>
     <row r="218" spans="1:12" ht="45">
-      <c r="A218" s="6" t="s">
+      <c r="A218" s="28" t="s">
         <v>139</v>
       </c>
       <c r="B218" s="18" t="s">
@@ -6241,7 +6396,7 @@
         <v>10</v>
       </c>
       <c r="F227" s="6" t="s">
-        <v>105</v>
+        <v>59</v>
       </c>
       <c r="G227" s="6" t="s">
         <v>114</v>
@@ -6280,7 +6435,7 @@
       <c r="L230" s="8"/>
     </row>
     <row r="231" spans="1:12" ht="45">
-      <c r="A231" s="6" t="s">
+      <c r="A231" s="28" t="s">
         <v>144</v>
       </c>
       <c r="B231" s="18" t="s">
@@ -6465,7 +6620,7 @@
       <c r="L243" s="8"/>
     </row>
     <row r="244" spans="1:12" ht="45">
-      <c r="A244" s="6" t="s">
+      <c r="A244" s="28" t="s">
         <v>147</v>
       </c>
       <c r="B244" s="18" t="s">
@@ -6647,7 +6802,7 @@
       <c r="L256" s="8"/>
     </row>
     <row r="257" spans="1:12" ht="45">
-      <c r="A257" s="6" t="s">
+      <c r="A257" s="28" t="s">
         <v>149</v>
       </c>
       <c r="B257" s="18" t="s">
@@ -6832,7 +6987,7 @@
       <c r="L269" s="8"/>
     </row>
     <row r="270" spans="1:12" ht="45">
-      <c r="A270" s="6" t="s">
+      <c r="A270" s="28" t="s">
         <v>168</v>
       </c>
       <c r="B270" s="18" t="s">
@@ -7030,7 +7185,7 @@
       <c r="L283" s="8"/>
     </row>
     <row r="284" spans="1:12" ht="45">
-      <c r="A284" s="6" t="s">
+      <c r="A284" s="28" t="s">
         <v>184</v>
       </c>
       <c r="B284" s="18" t="s">
@@ -7170,7 +7325,7 @@
         <v>10</v>
       </c>
       <c r="F293" s="6" t="s">
-        <v>105</v>
+        <v>59</v>
       </c>
       <c r="G293" s="6" t="s">
         <v>114</v>
@@ -7951,7 +8106,7 @@
       <c r="J348" s="4"/>
       <c r="K348" s="8"/>
     </row>
-    <row r="349" spans="1:18" s="9" customFormat="1" ht="25.5" customHeight="1">
+    <row r="349" spans="1:18" s="9" customFormat="1" ht="241.5" customHeight="1">
       <c r="A349" s="6"/>
       <c r="B349" s="21"/>
       <c r="C349" s="4"/>
@@ -8950,7 +9105,7 @@
         <v>257</v>
       </c>
       <c r="F420" s="6" t="s">
-        <v>146</v>
+        <v>519</v>
       </c>
       <c r="I420" s="6" t="s">
         <v>62</v>
@@ -9974,7 +10129,7 @@
       <c r="L494" s="8"/>
     </row>
     <row r="495" spans="1:12" ht="45">
-      <c r="A495" s="6" t="s">
+      <c r="A495" s="29" t="s">
         <v>300</v>
       </c>
       <c r="B495" s="18" t="s">
@@ -10056,7 +10211,7 @@
         <v>304</v>
       </c>
       <c r="G500" s="23" t="s">
-        <v>305</v>
+        <v>520</v>
       </c>
       <c r="K500" s="8"/>
       <c r="L500" s="8"/>
@@ -10065,7 +10220,7 @@
       <c r="E501" s="22">
         <v>6</v>
       </c>
-      <c r="F501" s="22" t="s">
+      <c r="F501" s="30" t="s">
         <v>306</v>
       </c>
       <c r="G501" s="23" t="s">
@@ -12857,63 +13012,351 @@
     <row r="715" spans="1:12">
       <c r="L715" s="8"/>
     </row>
-    <row r="716" spans="1:12">
-      <c r="B716" s="18"/>
+    <row r="716" spans="1:12" ht="45">
+      <c r="A716" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="B716" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D716" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="F716" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="H716" s="33"/>
+      <c r="I716" s="33" t="s">
+        <v>552</v>
+      </c>
       <c r="L716" s="8"/>
     </row>
-    <row r="717" spans="1:12">
+    <row r="717" spans="1:12" ht="65.25" customHeight="1">
+      <c r="E717" s="6">
+        <v>1</v>
+      </c>
+      <c r="F717" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G717" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="L717" s="8"/>
     </row>
-    <row r="718" spans="1:12">
+    <row r="718" spans="1:12" ht="30">
+      <c r="E718" s="6">
+        <v>2</v>
+      </c>
+      <c r="F718" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="G718" s="6" t="s">
+        <v>524</v>
+      </c>
       <c r="L718" s="8"/>
     </row>
-    <row r="719" spans="1:12">
+    <row r="719" spans="1:12" ht="150">
+      <c r="E719" s="6">
+        <v>3</v>
+      </c>
+      <c r="F719" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="G719" s="6" t="s">
+        <v>525</v>
+      </c>
       <c r="L719" s="8"/>
     </row>
     <row r="720" spans="1:12">
       <c r="L720" s="8"/>
     </row>
-    <row r="721" spans="12:12">
+    <row r="721" spans="1:12" ht="60">
+      <c r="A721" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="B721" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D721" s="6" t="s">
+        <v>527</v>
+      </c>
+      <c r="F721" s="6" t="s">
+        <v>528</v>
+      </c>
+      <c r="H721" s="33"/>
+      <c r="I721" s="33" t="s">
+        <v>552</v>
+      </c>
       <c r="L721" s="8"/>
     </row>
-    <row r="722" spans="12:12">
+    <row r="722" spans="1:12" ht="33" customHeight="1">
+      <c r="E722" s="6">
+        <v>1</v>
+      </c>
+      <c r="F722" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G722" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I722" s="6" t="s">
+        <v>529</v>
+      </c>
       <c r="L722" s="8"/>
     </row>
-    <row r="723" spans="12:12">
+    <row r="723" spans="1:12" ht="35.25" customHeight="1">
+      <c r="E723" s="6">
+        <v>2</v>
+      </c>
+      <c r="F723" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="G723" s="6" t="s">
+        <v>524</v>
+      </c>
       <c r="L723" s="8"/>
     </row>
-    <row r="724" spans="12:12">
+    <row r="724" spans="1:12" ht="30">
+      <c r="E724" s="6">
+        <v>3</v>
+      </c>
+      <c r="F724" s="6" t="s">
+        <v>535</v>
+      </c>
+      <c r="G724" s="6" t="s">
+        <v>532</v>
+      </c>
       <c r="L724" s="8"/>
     </row>
-    <row r="725" spans="12:12">
+    <row r="725" spans="1:12" ht="30">
+      <c r="E725" s="6">
+        <v>4</v>
+      </c>
+      <c r="F725" s="6" t="s">
+        <v>536</v>
+      </c>
+      <c r="G725" s="6" t="s">
+        <v>531</v>
+      </c>
       <c r="L725" s="8"/>
     </row>
-    <row r="726" spans="12:12">
+    <row r="726" spans="1:12" ht="30">
+      <c r="E726" s="6">
+        <v>5</v>
+      </c>
+      <c r="F726" s="6" t="s">
+        <v>530</v>
+      </c>
+      <c r="G726" s="6" t="s">
+        <v>531</v>
+      </c>
       <c r="L726" s="8"/>
     </row>
-    <row r="727" spans="12:12">
+    <row r="727" spans="1:12">
       <c r="L727" s="8"/>
     </row>
-    <row r="728" spans="12:12">
+    <row r="728" spans="1:12" ht="79.5" customHeight="1">
+      <c r="A728" s="6" t="s">
+        <v>533</v>
+      </c>
+      <c r="B728" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D728" s="6" t="s">
+        <v>534</v>
+      </c>
+      <c r="E728" s="6">
+        <v>1</v>
+      </c>
+      <c r="F728" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="G728" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I728" s="33" t="s">
+        <v>552</v>
+      </c>
       <c r="L728" s="8"/>
     </row>
-    <row r="729" spans="12:12">
+    <row r="729" spans="1:12" ht="30">
+      <c r="E729" s="6">
+        <v>2</v>
+      </c>
+      <c r="F729" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="G729" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="I729" s="6" t="s">
+        <v>529</v>
+      </c>
       <c r="L729" s="8"/>
     </row>
-    <row r="730" spans="12:12">
+    <row r="730" spans="1:12" ht="30">
+      <c r="E730" s="6">
+        <v>3</v>
+      </c>
+      <c r="F730" s="6" t="s">
+        <v>535</v>
+      </c>
+      <c r="G730" s="6" t="s">
+        <v>532</v>
+      </c>
       <c r="L730" s="8"/>
     </row>
-    <row r="731" spans="12:12">
+    <row r="731" spans="1:12" ht="30">
+      <c r="E731" s="6">
+        <v>4</v>
+      </c>
+      <c r="F731" s="6" t="s">
+        <v>537</v>
+      </c>
+      <c r="G731" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="L731" s="8"/>
     </row>
-    <row r="732" spans="12:12">
+    <row r="732" spans="1:12">
+      <c r="E732" s="6">
+        <v>5</v>
+      </c>
+      <c r="F732" s="6" t="s">
+        <v>538</v>
+      </c>
+      <c r="G732" s="6" t="s">
+        <v>539</v>
+      </c>
       <c r="L732" s="8"/>
     </row>
-    <row r="733" spans="12:12">
+    <row r="733" spans="1:12">
       <c r="L733" s="8"/>
     </row>
-    <row r="734" spans="12:12">
-      <c r="L734" s="8"/>
+    <row r="734" spans="1:12" ht="45">
+      <c r="A734" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="B734" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D734" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="F734" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="I734" s="33" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="735" spans="1:12" ht="30">
+      <c r="E735" s="6">
+        <v>1</v>
+      </c>
+      <c r="F735" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G735" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="736" spans="1:12" ht="30">
+      <c r="E736" s="6">
+        <v>2</v>
+      </c>
+      <c r="F736" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="G736" s="6" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="737" spans="1:9" ht="30">
+      <c r="E737" s="6">
+        <v>3</v>
+      </c>
+      <c r="F737" s="6" t="s">
+        <v>535</v>
+      </c>
+      <c r="G737" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="I737" s="6" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="738" spans="1:9" ht="30">
+      <c r="E738" s="6">
+        <v>4</v>
+      </c>
+      <c r="F738" s="6" t="s">
+        <v>537</v>
+      </c>
+      <c r="G738" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="739" spans="1:9" ht="30">
+      <c r="E739" s="6">
+        <v>5</v>
+      </c>
+      <c r="F739" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="G739" s="6" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="741" spans="1:9" ht="60">
+      <c r="A741" s="6" t="s">
+        <v>546</v>
+      </c>
+      <c r="B741" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D741" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="F741" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="I741" s="33" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="742" spans="1:9" ht="30">
+      <c r="E742" s="6">
+        <v>1</v>
+      </c>
+      <c r="F742" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G742" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="743" spans="1:9" ht="30">
+      <c r="E743" s="6">
+        <v>2</v>
+      </c>
+      <c r="F743" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="G743" s="6" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="744" spans="1:9" ht="150">
+      <c r="E744" s="6">
+        <v>3</v>
+      </c>
+      <c r="F744" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="G744" s="6" t="s">
+        <v>550</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -12924,13 +13367,13 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K346 J347:J356 K357:K485 C2:C662 C672 C716">
       <formula1>"Nithya VS, Poonima John, Prapancha, Preethi Pathrose, Semin Das, Sangeetha, Rijo J Patric"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C663:C671 C673:C715 C717:C730">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C663:C671 C673:C715 C717:C729">
       <formula1>"Nithya VS, Poonima John, Prapancha, Preethi Pathrose, Parvathy P, Semin Das, Sangeetha, Rijo J Patric"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B56 B13 B23 B30 B42 B69 B79 B92 B105 B119 B133 B146 B160 B175 B189 B203 B218 B231 B244 B257 B270 B284 B298 B309 B320 B333 B345 B347:B356 B361 B371 B381 B390 B400 B411 B420 B429 B437 B445 B453 B460 B467 B474 B481 B488 B495 B503 B509 B517 B525 B532 B539 B545 B551 B557 B563 B569 B576 B583 B592 B599 B608 B617 B626 B635 B644 B653 B660 B672 B681 B691 B698 B707 B716">
       <formula1>"CAS/ Appointment, Out Patient, Care Desk, EMR, Lab &amp; General Billing, Pharmacy Billing, Lab Results, Radiology, Insurance Desk, Casualty, MRD, In Patient, Nursing Station, Theatre, Indent, Store Management"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L346 K347:K356 L357:L734">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L346 K347:K356 L357:L733">
       <formula1>"Pass, Fail, Blocked"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K486:K689">
@@ -12939,8 +13382,13 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="I2" r:id="rId1"/>
+    <hyperlink ref="I716" r:id="rId2" display="http://mediwarecloud.com/"/>
+    <hyperlink ref="I721" r:id="rId3" display="http://mediwarecloud.com/"/>
+    <hyperlink ref="I728" r:id="rId4" display="http://mediwarecloud.com/"/>
+    <hyperlink ref="I734" r:id="rId5" display="http://mediwarecloud.com/"/>
+    <hyperlink ref="I741" r:id="rId6" display="http://mediwarecloud.com/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>